--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_16_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_16_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>944292.1813789214</v>
+        <v>938675.6207902827</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18014416.62643907</v>
+        <v>18014416.62643908</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9808165.762114882</v>
+        <v>9808165.762114899</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>191.8208754515553</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>347.6472557445166</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="X11" t="n">
-        <v>347.6472557445166</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>315.1692174007699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>149.1476881355087</v>
@@ -1457,7 +1457,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>123.1874880556995</v>
@@ -1466,7 +1466,7 @@
         <v>117.6743889408517</v>
       </c>
       <c r="H12" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T12" t="n">
-        <v>170.4382740666146</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>207.8845624928813</v>
       </c>
       <c r="V12" t="n">
-        <v>70.76561169434221</v>
+        <v>95.66352674899018</v>
       </c>
       <c r="W12" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>32.20931375428046</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>229.1176658249033</v>
+        <v>217.0234679050455</v>
       </c>
       <c r="U13" t="n">
         <v>282.5302226215153</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>347.6472557445164</v>
       </c>
       <c r="D14" t="n">
-        <v>8.044134827276544</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>347.6472557445167</v>
+        <v>191.8208754515552</v>
       </c>
       <c r="F14" t="n">
-        <v>347.6472557445167</v>
+        <v>347.6472557445164</v>
       </c>
       <c r="G14" t="n">
-        <v>347.6472557445167</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>347.6472557445164</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>149.1476881355087</v>
@@ -1694,16 +1694,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>76.86634290207493</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>170.4382740666146</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8845624928813</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>67.23911791764262</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>81.58550220060168</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>127.2537446806211</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>229.1176658249033</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>8.044134827276544</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>347.6472557445167</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="F17" t="n">
-        <v>347.6472557445167</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="G17" t="n">
-        <v>347.6472557445167</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>306.2077028597701</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>81.78940587364863</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>7.482505787846053</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S19" t="n">
-        <v>150.959594434724</v>
+        <v>91.35782763785394</v>
       </c>
       <c r="T19" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="E20" t="n">
-        <v>17.00564936827656</v>
+        <v>191.8208754515553</v>
       </c>
       <c r="F20" t="n">
-        <v>347.6472557445167</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>347.6472557445167</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>104.1813208234645</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
@@ -2171,13 +2171,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>77.41613587922477</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>170.4382740666146</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>207.8845624928813</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.6862291622585</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>145.0922268306807</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U22" t="n">
-        <v>192.257703743812</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>72.74592577965753</v>
+        <v>147.9399508712565</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -2335,10 +2335,10 @@
         <v>406.8166861751919</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>51.58147895005203</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T23" t="n">
-        <v>211.5718775168518</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>128.7880777047345</v>
@@ -2408,13 +2408,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>132.2836639843713</v>
+        <v>76.17166184569828</v>
       </c>
       <c r="U24" t="n">
         <v>207.8845624928813</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.08256215724786</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -2496,7 +2496,7 @@
         <v>145.0922268306807</v>
       </c>
       <c r="I25" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>229.1176658249033</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>211.1484153068455</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>133.6712200513963</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>87.06309369413245</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0180469272126</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>90.63346762249125</v>
       </c>
       <c r="E27" t="n">
         <v>135.0820259802211</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>90.63346762249125</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>104.3049151919198</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.0922268306807</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>147.229670650011</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>406.8166861751919</v>
+        <v>262.218486655215</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>128.6409434684205</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2876,19 +2876,19 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>90.63346762249125</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>44.69836265104095</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>170.4382740666146</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>207.8845624928813</v>
@@ -2955,19 +2955,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.0922268306807</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.68679933157338</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>249.1212396824816</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>238.5151327529477</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>51.58147895005203</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0180469272126</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>273.9767455259922</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3113,13 +3113,13 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4614008102719364</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
         <v>117.6743889408517</v>
@@ -3128,7 +3128,7 @@
         <v>75.9714710107498</v>
       </c>
       <c r="I33" t="n">
-        <v>8.099864593737074</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>170.4382740666146</v>
+        <v>104.5450484654368</v>
       </c>
       <c r="U33" t="n">
         <v>207.8845624928813</v>
@@ -3176,7 +3176,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>50.92720469042333</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>183.4770235079133</v>
@@ -3246,16 +3246,16 @@
         <v>282.5302226215153</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>34.58057469720394</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.6472557445167</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>306.2077028597703</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>347.6472557445166</v>
       </c>
       <c r="G35" t="n">
-        <v>347.6472557445167</v>
+        <v>347.6472557445166</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>347.6472557445166</v>
       </c>
       <c r="Y35" t="n">
-        <v>347.6472557445167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>130.5224029241618</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>170.4382740666146</v>
       </c>
       <c r="U36" t="n">
-        <v>66.21938014521953</v>
+        <v>207.8845624928813</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -3413,7 +3413,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3432,13 +3432,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>80.83732384283505</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>35.88829040174859</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,19 +3505,19 @@
         <v>306.2077028597703</v>
       </c>
       <c r="C38" t="n">
-        <v>347.6472557445167</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>347.6472557445167</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>347.6472557445166</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>347.6472557445166</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>347.6472557445166</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>347.6472557445167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,25 +3584,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>8.099864593737074</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>7.482505787846405</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170.4382740666146</v>
       </c>
       <c r="U39" t="n">
         <v>207.8845624928813</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>75.51445732713717</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>91.77285538804766</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U40" t="n">
-        <v>0.8533554923736869</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.6472557445167</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>347.6472557445166</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>306.2077028597703</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>17.00564936827633</v>
       </c>
       <c r="X41" t="n">
-        <v>347.6472557445167</v>
+        <v>347.6472557445166</v>
       </c>
       <c r="Y41" t="n">
-        <v>347.6472557445167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.34618579940318</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T42" t="n">
         <v>170.4382740666146</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8845624928813</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
@@ -3887,7 +3887,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>61.94290169812228</v>
       </c>
     </row>
     <row r="43">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>102.367766530733</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5781910131661</v>
+        <v>145.8241488442102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>183.4770235079133</v>
       </c>
       <c r="T43" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="C44" t="n">
-        <v>347.6472557445167</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="E44" t="n">
-        <v>347.6472557445167</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>315.1692174007696</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>306.2077028597703</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>347.6472557445167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>98.7124171123</v>
       </c>
       <c r="C45" t="n">
-        <v>104.3309162937558</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>117.6743889408517</v>
       </c>
       <c r="H45" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>8.099864593737074</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>170.4382740666146</v>
       </c>
       <c r="U45" t="n">
         <v>207.8845624928813</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -4137,13 +4137,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>30.88095592125112</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -4155,7 +4155,7 @@
         <v>145.0922268306807</v>
       </c>
       <c r="I46" t="n">
-        <v>78.24691198488814</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.81178045956133</v>
+        <v>572.7290846980177</v>
       </c>
       <c r="C11" t="n">
-        <v>27.81178045956133</v>
+        <v>572.7290846980177</v>
       </c>
       <c r="D11" t="n">
-        <v>27.81178045956133</v>
+        <v>572.7290846980177</v>
       </c>
       <c r="E11" t="n">
-        <v>27.81178045956133</v>
+        <v>572.7290846980177</v>
       </c>
       <c r="F11" t="n">
-        <v>27.81178045956133</v>
+        <v>221.5702405116374</v>
       </c>
       <c r="G11" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H11" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I11" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J11" t="n">
-        <v>97.37723928323612</v>
+        <v>97.37723928323635</v>
       </c>
       <c r="K11" t="n">
-        <v>234.6178659349237</v>
+        <v>234.6178659349241</v>
       </c>
       <c r="L11" t="n">
-        <v>428.863144150347</v>
+        <v>428.8631441503477</v>
       </c>
       <c r="M11" t="n">
-        <v>665.5835775618957</v>
+        <v>665.5835775618966</v>
       </c>
       <c r="N11" t="n">
-        <v>909.1333705158786</v>
+        <v>909.1333705158793</v>
       </c>
       <c r="O11" t="n">
-        <v>1130.442613932449</v>
+        <v>1130.44261393245</v>
       </c>
       <c r="P11" t="n">
-        <v>1296.899282459866</v>
+        <v>1296.899282459867</v>
       </c>
       <c r="Q11" t="n">
         <v>1390.589022978066</v>
@@ -5068,25 +5068,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S11" t="n">
-        <v>1390.589022978066</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="T11" t="n">
-        <v>1390.589022978066</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="U11" t="n">
-        <v>1390.589022978066</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="V11" t="n">
-        <v>1048.482213681585</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="W11" t="n">
-        <v>697.3233694952042</v>
+        <v>923.887928884398</v>
       </c>
       <c r="X11" t="n">
-        <v>346.1645253088238</v>
+        <v>923.887928884398</v>
       </c>
       <c r="Y11" t="n">
-        <v>27.81178045956133</v>
+        <v>923.887928884398</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>765.0351540229607</v>
+        <v>551.8498035270304</v>
       </c>
       <c r="C12" t="n">
-        <v>614.3809235830529</v>
+        <v>401.1955730871227</v>
       </c>
       <c r="D12" t="n">
-        <v>484.2919562045333</v>
+        <v>271.106605708603</v>
       </c>
       <c r="E12" t="n">
-        <v>347.845465315421</v>
+        <v>271.106605708603</v>
       </c>
       <c r="F12" t="n">
-        <v>223.4136591985528</v>
+        <v>146.6747995917348</v>
       </c>
       <c r="G12" t="n">
-        <v>104.5506400663793</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H12" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I12" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J12" t="n">
-        <v>251.7478856215214</v>
+        <v>251.7478856215213</v>
       </c>
       <c r="K12" t="n">
-        <v>352.4578700785568</v>
+        <v>352.4578700785567</v>
       </c>
       <c r="L12" t="n">
-        <v>517.9845243159089</v>
+        <v>517.9845243159086</v>
       </c>
       <c r="M12" t="n">
-        <v>723.7282867349792</v>
+        <v>723.7282867349788</v>
       </c>
       <c r="N12" t="n">
-        <v>944.2830935308459</v>
+        <v>944.2830935308456</v>
       </c>
       <c r="O12" t="n">
-        <v>1131.604785990899</v>
+        <v>1131.604785990898</v>
       </c>
       <c r="P12" t="n">
         <v>1269.380465704087</v>
@@ -5147,25 +5147,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S12" t="n">
-        <v>1390.589022978066</v>
+        <v>1277.888358601178</v>
       </c>
       <c r="T12" t="n">
-        <v>1218.429150183506</v>
+        <v>1277.888358601178</v>
       </c>
       <c r="U12" t="n">
-        <v>1218.429150183506</v>
+        <v>1067.903952042712</v>
       </c>
       <c r="V12" t="n">
-        <v>1146.948734330635</v>
+        <v>971.2741270437318</v>
       </c>
       <c r="W12" t="n">
-        <v>916.831488463922</v>
+        <v>741.1568811770187</v>
       </c>
       <c r="X12" t="n">
-        <v>916.831488463922</v>
+        <v>551.8498035270304</v>
       </c>
       <c r="Y12" t="n">
-        <v>916.831488463922</v>
+        <v>551.8498035270304</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.34644081742039</v>
+        <v>183.3705926003588</v>
       </c>
       <c r="C13" t="n">
-        <v>27.81178045956133</v>
+        <v>183.3705926003588</v>
       </c>
       <c r="D13" t="n">
-        <v>27.81178045956133</v>
+        <v>183.3705926003588</v>
       </c>
       <c r="E13" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="F13" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="G13" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H13" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I13" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J13" t="n">
-        <v>67.5636489924843</v>
+        <v>67.56364899248427</v>
       </c>
       <c r="K13" t="n">
-        <v>263.650626613421</v>
+        <v>263.6506266134209</v>
       </c>
       <c r="L13" t="n">
         <v>573.9814096562982</v>
@@ -5211,10 +5211,10 @@
         <v>914.4237032730507</v>
       </c>
       <c r="N13" t="n">
-        <v>1248.098693117216</v>
+        <v>982.7434112226291</v>
       </c>
       <c r="O13" t="n">
-        <v>1360.280548877725</v>
+        <v>1284.445761118245</v>
       </c>
       <c r="P13" t="n">
         <v>1390.589022978066</v>
@@ -5223,28 +5223,28 @@
         <v>1390.589022978066</v>
       </c>
       <c r="R13" t="n">
-        <v>1311.802563776865</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S13" t="n">
-        <v>1126.472237001195</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T13" t="n">
-        <v>895.0402513194745</v>
+        <v>1171.373398831555</v>
       </c>
       <c r="U13" t="n">
-        <v>609.6561880654185</v>
+        <v>885.9893355774993</v>
       </c>
       <c r="V13" t="n">
-        <v>343.6768428862428</v>
+        <v>885.9893355774993</v>
       </c>
       <c r="W13" t="n">
-        <v>60.34644081742039</v>
+        <v>602.658933508677</v>
       </c>
       <c r="X13" t="n">
-        <v>60.34644081742039</v>
+        <v>368.5786112916601</v>
       </c>
       <c r="Y13" t="n">
-        <v>60.34644081742039</v>
+        <v>368.5786112916601</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1390.589022978067</v>
+        <v>923.8879288843976</v>
       </c>
       <c r="C14" t="n">
-        <v>1390.589022978067</v>
+        <v>572.7290846980175</v>
       </c>
       <c r="D14" t="n">
-        <v>1382.463634263646</v>
+        <v>572.7290846980175</v>
       </c>
       <c r="E14" t="n">
-        <v>1031.304790077265</v>
+        <v>378.9706246459415</v>
       </c>
       <c r="F14" t="n">
-        <v>680.1459458908848</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="G14" t="n">
-        <v>328.9871017045043</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="H14" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="I14" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="J14" t="n">
-        <v>97.37723928323618</v>
+        <v>97.37723928323612</v>
       </c>
       <c r="K14" t="n">
-        <v>234.617865934924</v>
+        <v>234.6178659349239</v>
       </c>
       <c r="L14" t="n">
-        <v>428.8631441503474</v>
+        <v>428.8631441503473</v>
       </c>
       <c r="M14" t="n">
-        <v>665.5835775618963</v>
+        <v>665.5835775618962</v>
       </c>
       <c r="N14" t="n">
-        <v>909.1333705158791</v>
+        <v>909.1333705158784</v>
       </c>
       <c r="O14" t="n">
-        <v>1130.44261393245</v>
+        <v>1130.442613932449</v>
       </c>
       <c r="P14" t="n">
-        <v>1296.899282459867</v>
+        <v>1296.899282459866</v>
       </c>
       <c r="Q14" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978065</v>
       </c>
       <c r="R14" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978065</v>
       </c>
       <c r="S14" t="n">
-        <v>1390.589022978067</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="T14" t="n">
-        <v>1390.589022978067</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="U14" t="n">
-        <v>1390.589022978067</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="V14" t="n">
-        <v>1390.589022978067</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="W14" t="n">
-        <v>1390.589022978067</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="X14" t="n">
-        <v>1390.589022978067</v>
+        <v>923.8879288843976</v>
       </c>
       <c r="Y14" t="n">
-        <v>1390.589022978067</v>
+        <v>923.8879288843976</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>723.8149054989437</v>
+        <v>308.5549782779888</v>
       </c>
       <c r="C15" t="n">
-        <v>573.160675059036</v>
+        <v>157.900747838081</v>
       </c>
       <c r="D15" t="n">
-        <v>443.0717076805163</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="E15" t="n">
-        <v>306.625216791404</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="F15" t="n">
-        <v>182.1934106745358</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="G15" t="n">
-        <v>104.5506400663793</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="H15" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="I15" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="J15" t="n">
-        <v>251.7478856215214</v>
+        <v>57.01289064179396</v>
       </c>
       <c r="K15" t="n">
-        <v>414.0145117938104</v>
+        <v>157.7228750988294</v>
       </c>
       <c r="L15" t="n">
-        <v>579.5411660311624</v>
+        <v>323.2495293361815</v>
       </c>
       <c r="M15" t="n">
-        <v>785.2849284502328</v>
+        <v>528.9932917552518</v>
       </c>
       <c r="N15" t="n">
-        <v>1005.8397352461</v>
+        <v>749.5480985511185</v>
       </c>
       <c r="O15" t="n">
-        <v>1193.161427706152</v>
+        <v>936.8697910111712</v>
       </c>
       <c r="P15" t="n">
-        <v>1330.937107419341</v>
+        <v>1074.64547072436</v>
       </c>
       <c r="Q15" t="n">
-        <v>1390.589022978067</v>
+        <v>1341.202308725334</v>
       </c>
       <c r="R15" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978065</v>
       </c>
       <c r="S15" t="n">
-        <v>1277.888358601178</v>
+        <v>1390.589022978065</v>
       </c>
       <c r="T15" t="n">
-        <v>1105.728485806618</v>
+        <v>1218.429150183505</v>
       </c>
       <c r="U15" t="n">
-        <v>1105.728485806618</v>
+        <v>1008.444743625039</v>
       </c>
       <c r="V15" t="n">
-        <v>1105.728485806618</v>
+        <v>785.9047419961064</v>
       </c>
       <c r="W15" t="n">
-        <v>875.6112399399051</v>
+        <v>555.7874961293933</v>
       </c>
       <c r="X15" t="n">
-        <v>875.6112399399051</v>
+        <v>487.8691952024815</v>
       </c>
       <c r="Y15" t="n">
-        <v>875.6112399399051</v>
+        <v>308.5549782779888</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>895.0402513194749</v>
+        <v>353.5757105343696</v>
       </c>
       <c r="C16" t="n">
-        <v>895.0402513194749</v>
+        <v>183.3705926003588</v>
       </c>
       <c r="D16" t="n">
-        <v>739.4071382219897</v>
+        <v>183.3705926003588</v>
       </c>
       <c r="E16" t="n">
-        <v>583.8483260811922</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="F16" t="n">
-        <v>426.5223912941652</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="G16" t="n">
-        <v>259.2716933010681</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="H16" t="n">
-        <v>130.7325572600367</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="I16" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="J16" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956131</v>
       </c>
       <c r="K16" t="n">
-        <v>130.9812779906951</v>
+        <v>223.898758080498</v>
       </c>
       <c r="L16" t="n">
-        <v>441.3120610335724</v>
+        <v>534.2295411233753</v>
       </c>
       <c r="M16" t="n">
-        <v>781.7543546503249</v>
+        <v>598.98151443158</v>
       </c>
       <c r="N16" t="n">
-        <v>850.0740625999033</v>
+        <v>850.0740625999022</v>
       </c>
       <c r="O16" t="n">
-        <v>1151.77641249552</v>
+        <v>1151.776412495519</v>
       </c>
       <c r="P16" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978065</v>
       </c>
       <c r="Q16" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978065</v>
       </c>
       <c r="R16" t="n">
-        <v>1311.802563776865</v>
+        <v>1390.589022978065</v>
       </c>
       <c r="S16" t="n">
-        <v>1126.472237001195</v>
+        <v>1390.589022978065</v>
       </c>
       <c r="T16" t="n">
-        <v>895.0402513194749</v>
+        <v>1159.157037296345</v>
       </c>
       <c r="U16" t="n">
-        <v>895.0402513194749</v>
+        <v>1159.157037296345</v>
       </c>
       <c r="V16" t="n">
-        <v>895.0402513194749</v>
+        <v>893.1776921171692</v>
       </c>
       <c r="W16" t="n">
-        <v>895.0402513194749</v>
+        <v>893.1776921171692</v>
       </c>
       <c r="X16" t="n">
-        <v>895.0402513194749</v>
+        <v>659.0973699001522</v>
       </c>
       <c r="Y16" t="n">
-        <v>895.0402513194749</v>
+        <v>435.9853087167955</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1390.589022978067</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="C17" t="n">
-        <v>1390.589022978067</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="D17" t="n">
-        <v>1382.463634263646</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="E17" t="n">
-        <v>1031.304790077265</v>
+        <v>378.9706246459416</v>
       </c>
       <c r="F17" t="n">
-        <v>680.1459458908848</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="G17" t="n">
-        <v>328.9871017045043</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H17" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I17" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J17" t="n">
-        <v>97.37723928323615</v>
+        <v>97.37723928323612</v>
       </c>
       <c r="K17" t="n">
         <v>234.6178659349239</v>
       </c>
       <c r="L17" t="n">
-        <v>428.8631441503474</v>
+        <v>428.8631441503473</v>
       </c>
       <c r="M17" t="n">
-        <v>665.5835775618965</v>
+        <v>665.5835775618962</v>
       </c>
       <c r="N17" t="n">
-        <v>909.1333705158793</v>
+        <v>909.1333705158788</v>
       </c>
       <c r="O17" t="n">
-        <v>1130.44261393245</v>
+        <v>1130.442613932449</v>
       </c>
       <c r="P17" t="n">
-        <v>1296.899282459867</v>
+        <v>1296.899282459866</v>
       </c>
       <c r="Q17" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R17" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S17" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T17" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="U17" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="V17" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="W17" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="X17" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Y17" t="n">
-        <v>1390.589022978067</v>
+        <v>1081.288313018702</v>
       </c>
     </row>
     <row r="18">
@@ -5570,58 +5570,58 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104.5506400663793</v>
+        <v>35.36986711395127</v>
       </c>
       <c r="C18" t="n">
-        <v>104.5506400663793</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="D18" t="n">
-        <v>104.5506400663793</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="E18" t="n">
-        <v>104.5506400663793</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="F18" t="n">
-        <v>104.5506400663793</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="G18" t="n">
-        <v>104.5506400663793</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H18" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I18" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J18" t="n">
-        <v>57.01289064179398</v>
+        <v>251.7478856215213</v>
       </c>
       <c r="K18" t="n">
-        <v>157.7228750988294</v>
+        <v>364.6277975410784</v>
       </c>
       <c r="L18" t="n">
-        <v>323.2495293361815</v>
+        <v>530.1544517784305</v>
       </c>
       <c r="M18" t="n">
-        <v>612.282237806297</v>
+        <v>735.8982141975008</v>
       </c>
       <c r="N18" t="n">
-        <v>956.4530209933685</v>
+        <v>956.4530209933675</v>
       </c>
       <c r="O18" t="n">
-        <v>1143.774713453421</v>
+        <v>1143.77471345342</v>
       </c>
       <c r="P18" t="n">
-        <v>1281.55039316661</v>
+        <v>1281.550393166609</v>
       </c>
       <c r="Q18" t="n">
         <v>1341.202308725335</v>
       </c>
       <c r="R18" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S18" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T18" t="n">
         <v>1218.429150183506</v>
@@ -5630,16 +5630,16 @@
         <v>1008.44474362504</v>
       </c>
       <c r="V18" t="n">
-        <v>785.9047419961075</v>
+        <v>785.9047419961068</v>
       </c>
       <c r="W18" t="n">
-        <v>555.7874961293944</v>
+        <v>555.7874961293937</v>
       </c>
       <c r="X18" t="n">
-        <v>366.4804184794061</v>
+        <v>366.4804184794054</v>
       </c>
       <c r="Y18" t="n">
-        <v>187.1662015549133</v>
+        <v>187.1662015549126</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>455.3091900401608</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="C19" t="n">
-        <v>455.3091900401608</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="D19" t="n">
-        <v>455.3091900401608</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="E19" t="n">
-        <v>455.3091900401608</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="F19" t="n">
-        <v>297.9832552531337</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="G19" t="n">
-        <v>130.7325572600367</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H19" t="n">
-        <v>130.7325572600367</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I19" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J19" t="n">
-        <v>27.81178045956133</v>
+        <v>67.5636489924843</v>
       </c>
       <c r="K19" t="n">
-        <v>223.898758080498</v>
+        <v>98.79555387073958</v>
       </c>
       <c r="L19" t="n">
-        <v>534.2295411233753</v>
+        <v>409.1263369136169</v>
       </c>
       <c r="M19" t="n">
-        <v>598.98151443158</v>
+        <v>749.5686305303693</v>
       </c>
       <c r="N19" t="n">
-        <v>764.3064368712628</v>
+        <v>1083.243620374534</v>
       </c>
       <c r="O19" t="n">
-        <v>1066.008786766879</v>
+        <v>1360.280548877724</v>
       </c>
       <c r="P19" t="n">
-        <v>1304.821397249426</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Q19" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R19" t="n">
-        <v>1390.589022978067</v>
+        <v>1311.802563776865</v>
       </c>
       <c r="S19" t="n">
-        <v>1238.104584155113</v>
+        <v>1219.521929799234</v>
       </c>
       <c r="T19" t="n">
-        <v>1006.672598473393</v>
+        <v>1219.521929799234</v>
       </c>
       <c r="U19" t="n">
-        <v>721.2885352193366</v>
+        <v>1219.521929799234</v>
       </c>
       <c r="V19" t="n">
-        <v>455.3091900401608</v>
+        <v>953.5425846200585</v>
       </c>
       <c r="W19" t="n">
-        <v>455.3091900401608</v>
+        <v>670.2121825512362</v>
       </c>
       <c r="X19" t="n">
-        <v>455.3091900401608</v>
+        <v>436.1318603342193</v>
       </c>
       <c r="Y19" t="n">
-        <v>455.3091900401608</v>
+        <v>213.0197991508626</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1048.482213681585</v>
+        <v>923.887928884398</v>
       </c>
       <c r="C20" t="n">
-        <v>1048.482213681585</v>
+        <v>572.7290846980177</v>
       </c>
       <c r="D20" t="n">
-        <v>1048.482213681585</v>
+        <v>221.5702405116374</v>
       </c>
       <c r="E20" t="n">
-        <v>1031.304790077265</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="F20" t="n">
-        <v>680.1459458908848</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="G20" t="n">
-        <v>328.9871017045043</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H20" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I20" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J20" t="n">
-        <v>97.37723928323615</v>
+        <v>97.37723928323612</v>
       </c>
       <c r="K20" t="n">
         <v>234.6178659349239</v>
       </c>
       <c r="L20" t="n">
-        <v>428.8631441503475</v>
+        <v>428.8631441503471</v>
       </c>
       <c r="M20" t="n">
         <v>665.5835775618962</v>
@@ -5770,34 +5770,34 @@
         <v>1130.44261393245</v>
       </c>
       <c r="P20" t="n">
-        <v>1296.899282459867</v>
+        <v>1296.899282459866</v>
       </c>
       <c r="Q20" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R20" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S20" t="n">
-        <v>1390.589022978067</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="T20" t="n">
-        <v>1390.589022978067</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="U20" t="n">
-        <v>1390.589022978067</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="V20" t="n">
-        <v>1048.482213681585</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="W20" t="n">
-        <v>1048.482213681585</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="X20" t="n">
-        <v>1048.482213681585</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="Y20" t="n">
-        <v>1048.482213681585</v>
+        <v>1275.046773070778</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>569.4332752839694</v>
+        <v>371.0860983340112</v>
       </c>
       <c r="C21" t="n">
-        <v>418.7790448440615</v>
+        <v>371.0860983340112</v>
       </c>
       <c r="D21" t="n">
-        <v>288.6900774655418</v>
+        <v>240.9971309554916</v>
       </c>
       <c r="E21" t="n">
-        <v>152.2435865764295</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="F21" t="n">
-        <v>27.81178045956133</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="G21" t="n">
-        <v>27.81178045956133</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="H21" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I21" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J21" t="n">
-        <v>57.01289064179398</v>
+        <v>251.7478856215213</v>
       </c>
       <c r="K21" t="n">
-        <v>157.7228750988294</v>
+        <v>364.6277975410784</v>
       </c>
       <c r="L21" t="n">
-        <v>323.2495293361815</v>
+        <v>530.1544517784305</v>
       </c>
       <c r="M21" t="n">
-        <v>528.9932917552518</v>
+        <v>735.8982141975008</v>
       </c>
       <c r="N21" t="n">
-        <v>749.5480985511185</v>
+        <v>956.4530209933675</v>
       </c>
       <c r="O21" t="n">
-        <v>936.8697910111712</v>
+        <v>1143.77471345342</v>
       </c>
       <c r="P21" t="n">
-        <v>1074.64547072436</v>
+        <v>1281.550393166609</v>
       </c>
       <c r="Q21" t="n">
-        <v>1390.589022978067</v>
+        <v>1341.202308725335</v>
       </c>
       <c r="R21" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S21" t="n">
-        <v>1312.390905928345</v>
+        <v>1277.888358601178</v>
       </c>
       <c r="T21" t="n">
-        <v>1312.390905928345</v>
+        <v>1105.728485806618</v>
       </c>
       <c r="U21" t="n">
-        <v>1312.390905928345</v>
+        <v>895.7440792481516</v>
       </c>
       <c r="V21" t="n">
-        <v>1089.850904299412</v>
+        <v>895.7440792481516</v>
       </c>
       <c r="W21" t="n">
-        <v>1089.850904299412</v>
+        <v>665.6268333814385</v>
       </c>
       <c r="X21" t="n">
-        <v>900.5438266494234</v>
+        <v>476.3197557314501</v>
       </c>
       <c r="Y21" t="n">
-        <v>721.2296097249307</v>
+        <v>476.3197557314501</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>913.0589201579189</v>
+        <v>424.4481693741168</v>
       </c>
       <c r="C22" t="n">
-        <v>913.0589201579189</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="D22" t="n">
-        <v>757.4258070604337</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="E22" t="n">
-        <v>601.8669949196362</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="F22" t="n">
-        <v>444.5410601326092</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="G22" t="n">
         <v>277.2903621395122</v>
@@ -5907,7 +5907,7 @@
         <v>130.7325572600367</v>
       </c>
       <c r="I22" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J22" t="n">
         <v>67.5636489924843</v>
@@ -5916,46 +5916,46 @@
         <v>263.650626613421</v>
       </c>
       <c r="L22" t="n">
-        <v>573.9814096562982</v>
+        <v>384.4609155211901</v>
       </c>
       <c r="M22" t="n">
-        <v>781.7543546503249</v>
+        <v>724.9032091379427</v>
       </c>
       <c r="N22" t="n">
-        <v>850.0740625999033</v>
+        <v>1058.578198982108</v>
       </c>
       <c r="O22" t="n">
-        <v>1151.77641249552</v>
+        <v>1360.280548877724</v>
       </c>
       <c r="P22" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Q22" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R22" t="n">
-        <v>1390.589022978067</v>
+        <v>1311.802563776865</v>
       </c>
       <c r="S22" t="n">
-        <v>1390.589022978067</v>
+        <v>1126.472237001195</v>
       </c>
       <c r="T22" t="n">
-        <v>1390.589022978067</v>
+        <v>895.040251319474</v>
       </c>
       <c r="U22" t="n">
-        <v>1196.389322226741</v>
+        <v>609.6561880654181</v>
       </c>
       <c r="V22" t="n">
-        <v>1196.389322226741</v>
+        <v>609.6561880654181</v>
       </c>
       <c r="W22" t="n">
-        <v>913.0589201579189</v>
+        <v>609.6561880654181</v>
       </c>
       <c r="X22" t="n">
-        <v>913.0589201579189</v>
+        <v>609.6561880654181</v>
       </c>
       <c r="Y22" t="n">
-        <v>913.0589201579189</v>
+        <v>609.6561880654181</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>938.986209023814</v>
+        <v>1368.217594957293</v>
       </c>
       <c r="C23" t="n">
-        <v>938.986209023814</v>
+        <v>1368.217594957293</v>
       </c>
       <c r="D23" t="n">
-        <v>938.986209023814</v>
+        <v>1368.217594957293</v>
       </c>
       <c r="E23" t="n">
-        <v>865.5054759130488</v>
+        <v>1218.783301147943</v>
       </c>
       <c r="F23" t="n">
-        <v>448.6110374430266</v>
+        <v>801.8888626779212</v>
       </c>
       <c r="G23" t="n">
-        <v>37.68509181151956</v>
+        <v>390.9629170464141</v>
       </c>
       <c r="H23" t="n">
-        <v>37.68509181151956</v>
+        <v>89.78759580147111</v>
       </c>
       <c r="I23" t="n">
         <v>37.68509181151956</v>
       </c>
       <c r="J23" t="n">
-        <v>368.4033631069451</v>
+        <v>218.4600293774989</v>
       </c>
       <c r="K23" t="n">
-        <v>505.6439897586329</v>
+        <v>355.7006560291867</v>
       </c>
       <c r="L23" t="n">
-        <v>699.8892679740562</v>
+        <v>822.0536671967412</v>
       </c>
       <c r="M23" t="n">
-        <v>936.6097013856051</v>
+        <v>1058.77410060829</v>
       </c>
       <c r="N23" t="n">
-        <v>1180.159494339588</v>
+        <v>1302.323893562273</v>
       </c>
       <c r="O23" t="n">
-        <v>1401.468737756159</v>
+        <v>1523.633136978844</v>
       </c>
       <c r="P23" t="n">
-        <v>1567.925406283576</v>
+        <v>1690.089805506261</v>
       </c>
       <c r="Q23" t="n">
         <v>1783.77954602446</v>
@@ -6016,25 +6016,25 @@
         <v>1884.254590575978</v>
       </c>
       <c r="S23" t="n">
-        <v>1884.254590575978</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="T23" t="n">
-        <v>1670.545623387239</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="U23" t="n">
-        <v>1670.545623387239</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="V23" t="n">
-        <v>1328.438814090757</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="W23" t="n">
-        <v>1328.438814090757</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="X23" t="n">
-        <v>938.986209023814</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="Y23" t="n">
-        <v>938.986209023814</v>
+        <v>1768.71234066869</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>454.8747805190593</v>
+        <v>624.2542349350113</v>
       </c>
       <c r="C24" t="n">
-        <v>304.2205500791515</v>
+        <v>624.2542349350113</v>
       </c>
       <c r="D24" t="n">
-        <v>174.1315827006318</v>
+        <v>494.1652675564915</v>
       </c>
       <c r="E24" t="n">
-        <v>37.68509181151956</v>
+        <v>357.7187766673792</v>
       </c>
       <c r="F24" t="n">
-        <v>37.68509181151956</v>
+        <v>233.286970550511</v>
       </c>
       <c r="G24" t="n">
-        <v>37.68509181151956</v>
+        <v>114.4239514183375</v>
       </c>
       <c r="H24" t="n">
         <v>37.68509181151956</v>
@@ -6068,52 +6068,52 @@
         <v>37.68509181151956</v>
       </c>
       <c r="J24" t="n">
-        <v>261.6211969734796</v>
+        <v>116.8837050449218</v>
       </c>
       <c r="K24" t="n">
-        <v>727.9742081410341</v>
+        <v>583.2367162124764</v>
       </c>
       <c r="L24" t="n">
-        <v>893.5008623783862</v>
+        <v>748.7633704498285</v>
       </c>
       <c r="M24" t="n">
-        <v>1099.244624797456</v>
+        <v>954.5071328688988</v>
       </c>
       <c r="N24" t="n">
-        <v>1450.11858859128</v>
+        <v>1175.061939664766</v>
       </c>
       <c r="O24" t="n">
-        <v>1637.440281051332</v>
+        <v>1362.383632124818</v>
       </c>
       <c r="P24" t="n">
-        <v>1775.215960764521</v>
+        <v>1500.159311838007</v>
       </c>
       <c r="Q24" t="n">
-        <v>1834.867876323247</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="R24" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="S24" t="n">
-        <v>1771.55392619909</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="T24" t="n">
-        <v>1637.934063588614</v>
+        <v>1807.313518004566</v>
       </c>
       <c r="U24" t="n">
-        <v>1427.949657030148</v>
+        <v>1597.3291114461</v>
       </c>
       <c r="V24" t="n">
-        <v>1205.409655401215</v>
+        <v>1374.789109817167</v>
       </c>
       <c r="W24" t="n">
-        <v>975.2924095345018</v>
+        <v>1144.671863950454</v>
       </c>
       <c r="X24" t="n">
-        <v>785.9853318845135</v>
+        <v>955.3647863004653</v>
       </c>
       <c r="Y24" t="n">
-        <v>606.6711149600206</v>
+        <v>776.0505693759726</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1093.137349443888</v>
+        <v>990.2165726434127</v>
       </c>
       <c r="C25" t="n">
-        <v>922.9322315098773</v>
+        <v>820.011454709402</v>
       </c>
       <c r="D25" t="n">
-        <v>767.299118412392</v>
+        <v>664.3783416119167</v>
       </c>
       <c r="E25" t="n">
-        <v>611.7403062715945</v>
+        <v>508.8195294711192</v>
       </c>
       <c r="F25" t="n">
-        <v>454.4143714845674</v>
+        <v>351.4935946840921</v>
       </c>
       <c r="G25" t="n">
-        <v>287.1636734914704</v>
+        <v>184.2428966909951</v>
       </c>
       <c r="H25" t="n">
-        <v>140.6058686119949</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="I25" t="n">
         <v>37.68509181151956</v>
       </c>
       <c r="J25" t="n">
-        <v>77.43696034444255</v>
+        <v>77.4369603444425</v>
       </c>
       <c r="K25" t="n">
         <v>273.5239379653792</v>
       </c>
       <c r="L25" t="n">
-        <v>583.8547210082565</v>
+        <v>583.8547210082564</v>
       </c>
       <c r="M25" t="n">
-        <v>924.2970146250093</v>
+        <v>924.297014625009</v>
       </c>
       <c r="N25" t="n">
         <v>1257.972004469174</v>
@@ -6180,19 +6180,19 @@
         <v>1388.705818917386</v>
       </c>
       <c r="U25" t="n">
-        <v>1103.32175566333</v>
+        <v>1388.705818917386</v>
       </c>
       <c r="V25" t="n">
-        <v>1103.32175566333</v>
+        <v>1388.705818917386</v>
       </c>
       <c r="W25" t="n">
-        <v>1103.32175566333</v>
+        <v>1388.705818917386</v>
       </c>
       <c r="X25" t="n">
-        <v>1103.32175566333</v>
+        <v>1388.705818917386</v>
       </c>
       <c r="Y25" t="n">
-        <v>1103.32175566333</v>
+        <v>1175.424591334714</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>37.68509181151956</v>
+        <v>1368.217594957293</v>
       </c>
       <c r="C26" t="n">
-        <v>37.68509181151956</v>
+        <v>975.0420934602239</v>
       </c>
       <c r="D26" t="n">
-        <v>37.68509181151956</v>
+        <v>589.6009646768916</v>
       </c>
       <c r="E26" t="n">
-        <v>37.68509181151956</v>
+        <v>589.6009646768916</v>
       </c>
       <c r="F26" t="n">
-        <v>37.68509181151956</v>
+        <v>172.7065262068694</v>
       </c>
       <c r="G26" t="n">
-        <v>37.68509181151956</v>
+        <v>172.7065262068694</v>
       </c>
       <c r="H26" t="n">
         <v>37.68509181151956</v>
@@ -6226,52 +6226,52 @@
         <v>37.68509181151956</v>
       </c>
       <c r="J26" t="n">
-        <v>368.4033631069451</v>
+        <v>107.2505506351944</v>
       </c>
       <c r="K26" t="n">
-        <v>627.8083889813179</v>
+        <v>244.4911772868822</v>
       </c>
       <c r="L26" t="n">
-        <v>822.0536671967412</v>
+        <v>710.8441884544367</v>
       </c>
       <c r="M26" t="n">
-        <v>1058.77410060829</v>
+        <v>947.5646218659856</v>
       </c>
       <c r="N26" t="n">
-        <v>1302.323893562273</v>
+        <v>1191.114414819968</v>
       </c>
       <c r="O26" t="n">
-        <v>1523.633136978844</v>
+        <v>1624.108181530361</v>
       </c>
       <c r="P26" t="n">
-        <v>1690.089805506261</v>
+        <v>1790.564850057778</v>
       </c>
       <c r="Q26" t="n">
-        <v>1783.77954602446</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="R26" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="S26" t="n">
-        <v>1796.312071693016</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="T26" t="n">
-        <v>1796.312071693016</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="U26" t="n">
-        <v>1540.738286918054</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="V26" t="n">
-        <v>1198.631477621572</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="W26" t="n">
-        <v>827.6324425898597</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="X26" t="n">
-        <v>438.1798375229164</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="Y26" t="n">
-        <v>438.1798375229164</v>
+        <v>1768.71234066869</v>
       </c>
     </row>
     <row r="27">
@@ -6287,13 +6287,13 @@
         <v>265.6805398950675</v>
       </c>
       <c r="D27" t="n">
-        <v>265.6805398950675</v>
+        <v>174.1315827006318</v>
       </c>
       <c r="E27" t="n">
-        <v>129.2340490059552</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="F27" t="n">
-        <v>129.2340490059552</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="G27" t="n">
         <v>37.68509181151956</v>
@@ -6305,28 +6305,28 @@
         <v>37.68509181151956</v>
       </c>
       <c r="J27" t="n">
-        <v>66.88620199375221</v>
+        <v>261.6211969734796</v>
       </c>
       <c r="K27" t="n">
-        <v>167.5961864507876</v>
+        <v>362.331181430515</v>
       </c>
       <c r="L27" t="n">
-        <v>333.1228406881397</v>
+        <v>527.8578356678671</v>
       </c>
       <c r="M27" t="n">
-        <v>671.3418458862765</v>
+        <v>733.6015980869374</v>
       </c>
       <c r="N27" t="n">
-        <v>891.8966526821432</v>
+        <v>954.1564048828042</v>
       </c>
       <c r="O27" t="n">
-        <v>1358.249663849698</v>
+        <v>1141.478097342857</v>
       </c>
       <c r="P27" t="n">
-        <v>1824.602675017252</v>
+        <v>1450.772597585276</v>
       </c>
       <c r="Q27" t="n">
-        <v>1884.254590575978</v>
+        <v>1834.867876323247</v>
       </c>
       <c r="R27" t="n">
         <v>1884.254590575978</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1093.137349443888</v>
+        <v>143.0435920053779</v>
       </c>
       <c r="C28" t="n">
-        <v>922.9322315098773</v>
+        <v>143.0435920053779</v>
       </c>
       <c r="D28" t="n">
-        <v>767.299118412392</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="E28" t="n">
-        <v>611.7403062715945</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="F28" t="n">
-        <v>454.4143714845674</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="G28" t="n">
-        <v>287.1636734914704</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="H28" t="n">
-        <v>140.6058686119949</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="I28" t="n">
         <v>37.68509181151956</v>
       </c>
       <c r="J28" t="n">
-        <v>77.4369603444427</v>
+        <v>77.43696034444254</v>
       </c>
       <c r="K28" t="n">
-        <v>273.5239379653794</v>
+        <v>273.5239379653792</v>
       </c>
       <c r="L28" t="n">
-        <v>583.8547210082567</v>
+        <v>583.8547210082565</v>
       </c>
       <c r="M28" t="n">
-        <v>924.2970146250092</v>
+        <v>924.2970146250091</v>
       </c>
       <c r="N28" t="n">
         <v>1257.972004469174</v>
@@ -6408,28 +6408,28 @@
         <v>1884.254590575978</v>
       </c>
       <c r="R28" t="n">
-        <v>1884.254590575978</v>
+        <v>1805.468131374777</v>
       </c>
       <c r="S28" t="n">
-        <v>1884.254590575978</v>
+        <v>1620.137804599107</v>
       </c>
       <c r="T28" t="n">
-        <v>1884.254590575978</v>
+        <v>1620.137804599107</v>
       </c>
       <c r="U28" t="n">
-        <v>1884.254590575978</v>
+        <v>1334.753741345051</v>
       </c>
       <c r="V28" t="n">
-        <v>1884.254590575978</v>
+        <v>1068.774396165875</v>
       </c>
       <c r="W28" t="n">
-        <v>1735.537751535563</v>
+        <v>785.4439940970528</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.457429318546</v>
+        <v>551.3636718800359</v>
       </c>
       <c r="Y28" t="n">
-        <v>1278.345368135189</v>
+        <v>328.2516106966792</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>841.7865389400961</v>
+        <v>1098.311276429635</v>
       </c>
       <c r="C29" t="n">
-        <v>448.6110374430266</v>
+        <v>705.1357749325659</v>
       </c>
       <c r="D29" t="n">
-        <v>448.6110374430266</v>
+        <v>705.1357749325659</v>
       </c>
       <c r="E29" t="n">
-        <v>448.6110374430266</v>
+        <v>302.5522500491105</v>
       </c>
       <c r="F29" t="n">
-        <v>448.6110374430266</v>
+        <v>302.5522500491105</v>
       </c>
       <c r="G29" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="H29" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="I29" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="J29" t="n">
         <v>368.4033631069451</v>
@@ -6469,46 +6469,46 @@
         <v>505.6439897586329</v>
       </c>
       <c r="L29" t="n">
-        <v>822.0536671967412</v>
+        <v>699.8892679740562</v>
       </c>
       <c r="M29" t="n">
-        <v>1058.77410060829</v>
+        <v>936.6097013856051</v>
       </c>
       <c r="N29" t="n">
-        <v>1302.323893562273</v>
+        <v>1180.159494339588</v>
       </c>
       <c r="O29" t="n">
-        <v>1523.633136978844</v>
+        <v>1401.468737756159</v>
       </c>
       <c r="P29" t="n">
-        <v>1690.089805506261</v>
+        <v>1567.925406283576</v>
       </c>
       <c r="Q29" t="n">
-        <v>1783.77954602446</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="R29" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="S29" t="n">
-        <v>1768.71234066869</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="T29" t="n">
-        <v>1768.71234066869</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="U29" t="n">
-        <v>1768.71234066869</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="V29" t="n">
-        <v>1768.71234066869</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="W29" t="n">
-        <v>1768.71234066869</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="X29" t="n">
-        <v>1638.771993730892</v>
+        <v>1494.801985509034</v>
       </c>
       <c r="Y29" t="n">
-        <v>1242.281284651493</v>
+        <v>1098.311276429635</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>416.3347703349752</v>
+        <v>701.1953075064232</v>
       </c>
       <c r="C30" t="n">
-        <v>265.6805398950675</v>
+        <v>550.5410770665154</v>
       </c>
       <c r="D30" t="n">
-        <v>174.1315827006318</v>
+        <v>420.4521096879957</v>
       </c>
       <c r="E30" t="n">
-        <v>37.68509181151956</v>
+        <v>284.0056187988835</v>
       </c>
       <c r="F30" t="n">
-        <v>37.68509181151956</v>
+        <v>159.5738126820153</v>
       </c>
       <c r="G30" t="n">
-        <v>37.68509181151956</v>
+        <v>114.4239514183375</v>
       </c>
       <c r="H30" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="I30" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="J30" t="n">
         <v>261.6211969734796</v>
       </c>
       <c r="K30" t="n">
-        <v>727.9742081410341</v>
+        <v>362.331181430515</v>
       </c>
       <c r="L30" t="n">
-        <v>893.5008623783862</v>
+        <v>527.8578356678671</v>
       </c>
       <c r="M30" t="n">
-        <v>1099.244624797456</v>
+        <v>733.6015980869374</v>
       </c>
       <c r="N30" t="n">
-        <v>1319.799431593323</v>
+        <v>954.1564048828042</v>
       </c>
       <c r="O30" t="n">
-        <v>1507.121124053376</v>
+        <v>1141.478097342857</v>
       </c>
       <c r="P30" t="n">
-        <v>1775.215960764521</v>
+        <v>1450.772597585275</v>
       </c>
       <c r="Q30" t="n">
-        <v>1834.867876323247</v>
+        <v>1834.867876323246</v>
       </c>
       <c r="R30" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="S30" t="n">
-        <v>1771.55392619909</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="T30" t="n">
-        <v>1599.39405340453</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="U30" t="n">
-        <v>1389.409646846064</v>
+        <v>1674.270184017512</v>
       </c>
       <c r="V30" t="n">
-        <v>1166.869645217131</v>
+        <v>1451.730182388579</v>
       </c>
       <c r="W30" t="n">
-        <v>936.7523993504176</v>
+        <v>1221.612936521866</v>
       </c>
       <c r="X30" t="n">
-        <v>747.4453217004293</v>
+        <v>1032.305858871877</v>
       </c>
       <c r="Y30" t="n">
-        <v>568.1311047759366</v>
+        <v>852.9916419473846</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>990.2165726434127</v>
+        <v>363.4490218863278</v>
       </c>
       <c r="C31" t="n">
-        <v>820.011454709402</v>
+        <v>193.2439039523171</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3783416119167</v>
+        <v>193.2439039523171</v>
       </c>
       <c r="E31" t="n">
-        <v>508.8195294711192</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="F31" t="n">
-        <v>351.4935946840921</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="G31" t="n">
-        <v>184.2428966909951</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="H31" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="I31" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="J31" t="n">
-        <v>77.43696034444254</v>
+        <v>77.43696034444247</v>
       </c>
       <c r="K31" t="n">
-        <v>273.5239379653792</v>
+        <v>273.5239379653791</v>
       </c>
       <c r="L31" t="n">
-        <v>583.8547210082565</v>
+        <v>583.8547210082563</v>
       </c>
       <c r="M31" t="n">
-        <v>924.2970146250091</v>
+        <v>924.2970146250088</v>
       </c>
       <c r="N31" t="n">
         <v>1257.972004469174</v>
       </c>
       <c r="O31" t="n">
-        <v>1559.674354364791</v>
+        <v>1559.67435436479</v>
       </c>
       <c r="P31" t="n">
-        <v>1798.486964847338</v>
+        <v>1798.486964847337</v>
       </c>
       <c r="Q31" t="n">
         <v>1884.254590575978</v>
@@ -6648,25 +6648,25 @@
         <v>1884.254590575978</v>
       </c>
       <c r="S31" t="n">
-        <v>1884.254590575978</v>
+        <v>1786.591156907722</v>
       </c>
       <c r="T31" t="n">
-        <v>1884.254590575978</v>
+        <v>1555.159171226001</v>
       </c>
       <c r="U31" t="n">
-        <v>1884.254590575978</v>
+        <v>1555.159171226001</v>
       </c>
       <c r="V31" t="n">
-        <v>1884.254590575978</v>
+        <v>1289.179826046825</v>
       </c>
       <c r="W31" t="n">
-        <v>1632.616974735088</v>
+        <v>1005.849423978003</v>
       </c>
       <c r="X31" t="n">
-        <v>1398.536652518071</v>
+        <v>771.7691017609858</v>
       </c>
       <c r="Y31" t="n">
-        <v>1175.424591334714</v>
+        <v>548.6570405776291</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>716.1531011029324</v>
+        <v>840.0206590648741</v>
       </c>
       <c r="C32" t="n">
-        <v>716.1531011029324</v>
+        <v>840.0206590648741</v>
       </c>
       <c r="D32" t="n">
-        <v>330.7119723196001</v>
+        <v>454.5795302815418</v>
       </c>
       <c r="E32" t="n">
-        <v>330.7119723196001</v>
+        <v>454.5795302815418</v>
       </c>
       <c r="F32" t="n">
-        <v>330.7119723196001</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="G32" t="n">
-        <v>330.7119723196001</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="H32" t="n">
-        <v>89.78759580147111</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="I32" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="J32" t="n">
         <v>368.4033631069451</v>
       </c>
       <c r="K32" t="n">
-        <v>505.6439897586329</v>
+        <v>728.283433532835</v>
       </c>
       <c r="L32" t="n">
-        <v>699.8892679740562</v>
+        <v>922.5287117482584</v>
       </c>
       <c r="M32" t="n">
-        <v>936.6097013856051</v>
+        <v>1159.249145159807</v>
       </c>
       <c r="N32" t="n">
-        <v>1180.159494339588</v>
+        <v>1402.79893811379</v>
       </c>
       <c r="O32" t="n">
-        <v>1401.468737756159</v>
+        <v>1624.108181530361</v>
       </c>
       <c r="P32" t="n">
-        <v>1567.925406283576</v>
+        <v>1790.564850057778</v>
       </c>
       <c r="Q32" t="n">
-        <v>1783.77954602446</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="R32" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="S32" t="n">
-        <v>1768.71234066869</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="T32" t="n">
-        <v>1768.71234066869</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="U32" t="n">
-        <v>1513.138555893728</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="V32" t="n">
-        <v>1513.138555893728</v>
+        <v>1607.510403175985</v>
       </c>
       <c r="W32" t="n">
-        <v>1513.138555893728</v>
+        <v>1236.511368144273</v>
       </c>
       <c r="X32" t="n">
-        <v>1513.138555893728</v>
+        <v>1236.511368144273</v>
       </c>
       <c r="Y32" t="n">
-        <v>1116.647846814329</v>
+        <v>840.0206590648741</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>529.0354347118634</v>
+        <v>774.908465374919</v>
       </c>
       <c r="C33" t="n">
-        <v>378.3812042719557</v>
+        <v>624.2542349350113</v>
       </c>
       <c r="D33" t="n">
-        <v>378.3812042719557</v>
+        <v>494.1652675564915</v>
       </c>
       <c r="E33" t="n">
-        <v>241.9347133828434</v>
+        <v>357.7187766673792</v>
       </c>
       <c r="F33" t="n">
-        <v>241.4686519583263</v>
+        <v>233.286970550511</v>
       </c>
       <c r="G33" t="n">
-        <v>122.6056328261528</v>
+        <v>114.4239514183375</v>
       </c>
       <c r="H33" t="n">
-        <v>45.86677321933479</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="I33" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="J33" t="n">
         <v>261.6211969734796</v>
       </c>
       <c r="K33" t="n">
-        <v>727.9742081410341</v>
+        <v>533.8500019597449</v>
       </c>
       <c r="L33" t="n">
-        <v>893.5008623783862</v>
+        <v>699.376656197097</v>
       </c>
       <c r="M33" t="n">
-        <v>1099.244624797456</v>
+        <v>905.1204186161673</v>
       </c>
       <c r="N33" t="n">
-        <v>1319.799431593323</v>
+        <v>1125.675225412034</v>
       </c>
       <c r="O33" t="n">
-        <v>1507.121124053376</v>
+        <v>1312.996917872087</v>
       </c>
       <c r="P33" t="n">
-        <v>1824.602675017252</v>
+        <v>1450.772597585275</v>
       </c>
       <c r="Q33" t="n">
-        <v>1884.254590575978</v>
+        <v>1834.867876323246</v>
       </c>
       <c r="R33" t="n">
         <v>1884.254590575978</v>
@@ -6809,22 +6809,22 @@
         <v>1884.254590575978</v>
       </c>
       <c r="T33" t="n">
-        <v>1712.094717781418</v>
+        <v>1778.653531519981</v>
       </c>
       <c r="U33" t="n">
-        <v>1502.110311222952</v>
+        <v>1568.669124961515</v>
       </c>
       <c r="V33" t="n">
-        <v>1279.570309594019</v>
+        <v>1346.129123332582</v>
       </c>
       <c r="W33" t="n">
-        <v>1049.453063727306</v>
+        <v>1116.011877465869</v>
       </c>
       <c r="X33" t="n">
-        <v>860.1459860773175</v>
+        <v>926.7047998158804</v>
       </c>
       <c r="Y33" t="n">
-        <v>680.8317691528248</v>
+        <v>926.7047998158804</v>
       </c>
     </row>
     <row r="34">
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>519.0821349838131</v>
+        <v>256.3774107040341</v>
       </c>
       <c r="C34" t="n">
-        <v>348.8770170498023</v>
+        <v>256.3774107040341</v>
       </c>
       <c r="D34" t="n">
-        <v>193.2439039523171</v>
+        <v>256.3774107040341</v>
       </c>
       <c r="E34" t="n">
-        <v>37.68509181151956</v>
+        <v>256.3774107040341</v>
       </c>
       <c r="F34" t="n">
-        <v>37.68509181151956</v>
+        <v>256.3774107040341</v>
       </c>
       <c r="G34" t="n">
-        <v>37.68509181151956</v>
+        <v>89.12671271093706</v>
       </c>
       <c r="H34" t="n">
-        <v>37.68509181151956</v>
+        <v>89.12671271093706</v>
       </c>
       <c r="I34" t="n">
-        <v>37.68509181151956</v>
+        <v>37.68509181151955</v>
       </c>
       <c r="J34" t="n">
-        <v>77.43696034444255</v>
+        <v>77.43696034444253</v>
       </c>
       <c r="K34" t="n">
         <v>273.5239379653792</v>
       </c>
       <c r="L34" t="n">
-        <v>583.8547210082564</v>
+        <v>583.8547210082565</v>
       </c>
       <c r="M34" t="n">
-        <v>924.297014625009</v>
+        <v>924.2970146250091</v>
       </c>
       <c r="N34" t="n">
         <v>1257.972004469174</v>
@@ -6882,28 +6882,28 @@
         <v>1884.254590575978</v>
       </c>
       <c r="R34" t="n">
-        <v>1805.468131374777</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="S34" t="n">
-        <v>1620.137804599107</v>
+        <v>1698.924263800308</v>
       </c>
       <c r="T34" t="n">
-        <v>1388.705818917386</v>
+        <v>1467.492278118587</v>
       </c>
       <c r="U34" t="n">
-        <v>1103.32175566333</v>
+        <v>1182.108214864531</v>
       </c>
       <c r="V34" t="n">
-        <v>837.3424104841546</v>
+        <v>1182.108214864531</v>
       </c>
       <c r="W34" t="n">
-        <v>554.0120084153323</v>
+        <v>898.777812795709</v>
       </c>
       <c r="X34" t="n">
-        <v>519.0821349838131</v>
+        <v>664.6974905786921</v>
       </c>
       <c r="Y34" t="n">
-        <v>519.0821349838131</v>
+        <v>441.5854293953354</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>688.2713346053058</v>
+        <v>1039.430178791686</v>
       </c>
       <c r="C35" t="n">
-        <v>378.9706246459419</v>
+        <v>1039.430178791686</v>
       </c>
       <c r="D35" t="n">
-        <v>378.9706246459419</v>
+        <v>1039.430178791686</v>
       </c>
       <c r="E35" t="n">
-        <v>378.9706246459419</v>
+        <v>730.1294688323221</v>
       </c>
       <c r="F35" t="n">
-        <v>378.9706246459419</v>
+        <v>378.9706246459417</v>
       </c>
       <c r="G35" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="H35" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="I35" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="J35" t="n">
         <v>97.37723928323615</v>
@@ -6961,25 +6961,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="R35" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S35" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T35" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="U35" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="V35" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="W35" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="X35" t="n">
-        <v>1390.589022978067</v>
+        <v>1039.430178791686</v>
       </c>
       <c r="Y35" t="n">
         <v>1039.430178791686</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>178.4660108994691</v>
+        <v>366.4804184794058</v>
       </c>
       <c r="C36" t="n">
-        <v>27.81178045956134</v>
+        <v>234.639607444899</v>
       </c>
       <c r="D36" t="n">
-        <v>27.81178045956134</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="E36" t="n">
-        <v>27.81178045956134</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="F36" t="n">
-        <v>27.81178045956134</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="G36" t="n">
-        <v>27.81178045956134</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="H36" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="I36" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="J36" t="n">
-        <v>57.01289064179399</v>
+        <v>57.01289064179397</v>
       </c>
       <c r="K36" t="n">
         <v>157.7228750988294</v>
       </c>
       <c r="L36" t="n">
-        <v>501.8936582859009</v>
+        <v>323.2495293361815</v>
       </c>
       <c r="M36" t="n">
-        <v>707.6374207049712</v>
+        <v>528.9932917552518</v>
       </c>
       <c r="N36" t="n">
-        <v>928.1922275008379</v>
+        <v>749.5480985511185</v>
       </c>
       <c r="O36" t="n">
-        <v>1193.161427706153</v>
+        <v>936.8697910111712</v>
       </c>
       <c r="P36" t="n">
-        <v>1330.937107419341</v>
+        <v>1074.64547072436</v>
       </c>
       <c r="Q36" t="n">
-        <v>1390.589022978067</v>
+        <v>1341.202308725335</v>
       </c>
       <c r="R36" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S36" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T36" t="n">
-        <v>1218.429150183507</v>
+        <v>1218.429150183506</v>
       </c>
       <c r="U36" t="n">
-        <v>1151.540887410558</v>
+        <v>1008.44474362504</v>
       </c>
       <c r="V36" t="n">
-        <v>929.0008857816247</v>
+        <v>785.9047419961073</v>
       </c>
       <c r="W36" t="n">
-        <v>698.8836399149116</v>
+        <v>555.7874961293942</v>
       </c>
       <c r="X36" t="n">
-        <v>509.5765622649232</v>
+        <v>366.4804184794058</v>
       </c>
       <c r="Y36" t="n">
-        <v>330.2623453404304</v>
+        <v>366.4804184794058</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>748.1886208863921</v>
+        <v>353.6500114910574</v>
       </c>
       <c r="C37" t="n">
-        <v>577.9835029523813</v>
+        <v>183.4448935570466</v>
       </c>
       <c r="D37" t="n">
-        <v>422.350389854896</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="E37" t="n">
-        <v>266.7915777140985</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="F37" t="n">
-        <v>109.4656429270715</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="G37" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="H37" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="I37" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="J37" t="n">
-        <v>67.56364899248432</v>
+        <v>67.5636489924843</v>
       </c>
       <c r="K37" t="n">
-        <v>263.650626613421</v>
+        <v>98.79555387073958</v>
       </c>
       <c r="L37" t="n">
-        <v>573.9814096562982</v>
+        <v>158.2004078528402</v>
       </c>
       <c r="M37" t="n">
-        <v>638.7333829645029</v>
+        <v>498.6427014695927</v>
       </c>
       <c r="N37" t="n">
-        <v>972.408372808668</v>
+        <v>832.3176913137578</v>
       </c>
       <c r="O37" t="n">
-        <v>1274.110722704284</v>
+        <v>1134.020041209374</v>
       </c>
       <c r="P37" t="n">
-        <v>1390.589022978067</v>
+        <v>1304.821397249426</v>
       </c>
       <c r="Q37" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R37" t="n">
-        <v>1390.589022978067</v>
+        <v>1311.802563776865</v>
       </c>
       <c r="S37" t="n">
-        <v>1390.589022978067</v>
+        <v>1126.472237001195</v>
       </c>
       <c r="T37" t="n">
-        <v>1390.589022978067</v>
+        <v>1090.22143861559</v>
       </c>
       <c r="U37" t="n">
-        <v>1390.589022978067</v>
+        <v>804.8373753615344</v>
       </c>
       <c r="V37" t="n">
-        <v>1390.589022978067</v>
+        <v>538.8580301823587</v>
       </c>
       <c r="W37" t="n">
-        <v>1390.589022978067</v>
+        <v>538.8580301823587</v>
       </c>
       <c r="X37" t="n">
-        <v>1156.50870076105</v>
+        <v>538.8580301823587</v>
       </c>
       <c r="Y37" t="n">
-        <v>933.3966395776933</v>
+        <v>538.8580301823587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>730.1294688323223</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="C38" t="n">
-        <v>378.9706246459419</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="D38" t="n">
-        <v>27.81178045956134</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="E38" t="n">
-        <v>27.81178045956134</v>
+        <v>730.1294688323221</v>
       </c>
       <c r="F38" t="n">
-        <v>27.81178045956134</v>
+        <v>378.9706246459417</v>
       </c>
       <c r="G38" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="H38" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="I38" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="J38" t="n">
-        <v>97.37723928323589</v>
+        <v>97.37723928323615</v>
       </c>
       <c r="K38" t="n">
-        <v>234.6178659349237</v>
+        <v>234.6178659349239</v>
       </c>
       <c r="L38" t="n">
-        <v>428.8631441503471</v>
+        <v>428.8631441503474</v>
       </c>
       <c r="M38" t="n">
-        <v>665.5835775618959</v>
+        <v>665.5835775618963</v>
       </c>
       <c r="N38" t="n">
-        <v>909.1333705158788</v>
+        <v>909.1333705158791</v>
       </c>
       <c r="O38" t="n">
         <v>1130.44261393245</v>
@@ -7195,31 +7195,31 @@
         <v>1296.899282459867</v>
       </c>
       <c r="Q38" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R38" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S38" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T38" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="U38" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="V38" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="W38" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="X38" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Y38" t="n">
-        <v>1039.430178791686</v>
+        <v>1390.589022978066</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>773.216835430776</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="C39" t="n">
-        <v>622.5626049908682</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="D39" t="n">
-        <v>492.4736376123485</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="E39" t="n">
-        <v>356.0271467232362</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="F39" t="n">
-        <v>231.595340606368</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="G39" t="n">
-        <v>112.7323214741945</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="H39" t="n">
-        <v>35.99346186737657</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="I39" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="J39" t="n">
-        <v>57.01289064179399</v>
+        <v>251.7478856215214</v>
       </c>
       <c r="K39" t="n">
-        <v>157.7228750988294</v>
+        <v>352.4578700785568</v>
       </c>
       <c r="L39" t="n">
-        <v>501.8936582859009</v>
+        <v>517.9845243159089</v>
       </c>
       <c r="M39" t="n">
-        <v>785.2849284502332</v>
+        <v>723.7282867349792</v>
       </c>
       <c r="N39" t="n">
-        <v>1005.8397352461</v>
+        <v>944.2830935308459</v>
       </c>
       <c r="O39" t="n">
-        <v>1193.161427706153</v>
+        <v>1131.604785990899</v>
       </c>
       <c r="P39" t="n">
-        <v>1330.937107419341</v>
+        <v>1269.380465704087</v>
       </c>
       <c r="Q39" t="n">
-        <v>1390.589022978067</v>
+        <v>1341.202308725335</v>
       </c>
       <c r="R39" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S39" t="n">
-        <v>1390.589022978067</v>
+        <v>1383.030936323676</v>
       </c>
       <c r="T39" t="n">
-        <v>1390.589022978067</v>
+        <v>1210.871063529116</v>
       </c>
       <c r="U39" t="n">
-        <v>1180.604616419601</v>
+        <v>1000.88665697065</v>
       </c>
       <c r="V39" t="n">
-        <v>1180.604616419601</v>
+        <v>778.346655341717</v>
       </c>
       <c r="W39" t="n">
-        <v>1180.604616419601</v>
+        <v>548.2294094750039</v>
       </c>
       <c r="X39" t="n">
-        <v>1104.32738679623</v>
+        <v>358.9223318250155</v>
       </c>
       <c r="Y39" t="n">
-        <v>925.0131698717373</v>
+        <v>179.6081149005227</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>198.0168983935721</v>
+        <v>781.073120114969</v>
       </c>
       <c r="C40" t="n">
-        <v>27.81178045956134</v>
+        <v>610.8680021809582</v>
       </c>
       <c r="D40" t="n">
-        <v>27.81178045956134</v>
+        <v>610.8680021809582</v>
       </c>
       <c r="E40" t="n">
-        <v>27.81178045956134</v>
+        <v>455.3091900401608</v>
       </c>
       <c r="F40" t="n">
-        <v>27.81178045956134</v>
+        <v>297.9832552531337</v>
       </c>
       <c r="G40" t="n">
-        <v>27.81178045956134</v>
+        <v>130.7325572600367</v>
       </c>
       <c r="H40" t="n">
-        <v>27.81178045956134</v>
+        <v>130.7325572600367</v>
       </c>
       <c r="I40" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="J40" t="n">
-        <v>27.81178045956134</v>
+        <v>67.5636489924843</v>
       </c>
       <c r="K40" t="n">
-        <v>223.898758080498</v>
+        <v>239.2884358104495</v>
       </c>
       <c r="L40" t="n">
-        <v>534.2295411233753</v>
+        <v>298.6932897925501</v>
       </c>
       <c r="M40" t="n">
-        <v>598.98151443158</v>
+        <v>639.1355834093026</v>
       </c>
       <c r="N40" t="n">
-        <v>764.306436871263</v>
+        <v>972.8105732534677</v>
       </c>
       <c r="O40" t="n">
-        <v>1066.008786766879</v>
+        <v>1274.512923149084</v>
       </c>
       <c r="P40" t="n">
         <v>1304.821397249426</v>
       </c>
       <c r="Q40" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R40" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S40" t="n">
-        <v>1390.589022978067</v>
+        <v>1297.889169050746</v>
       </c>
       <c r="T40" t="n">
-        <v>1390.589022978067</v>
+        <v>1066.457183369025</v>
       </c>
       <c r="U40" t="n">
-        <v>1389.727047733245</v>
+        <v>781.073120114969</v>
       </c>
       <c r="V40" t="n">
-        <v>1123.747702554069</v>
+        <v>781.073120114969</v>
       </c>
       <c r="W40" t="n">
-        <v>840.417300485247</v>
+        <v>781.073120114969</v>
       </c>
       <c r="X40" t="n">
-        <v>606.33697826823</v>
+        <v>781.073120114969</v>
       </c>
       <c r="Y40" t="n">
-        <v>383.2249170848734</v>
+        <v>781.073120114969</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>337.1124904189253</v>
+        <v>680.1459458908847</v>
       </c>
       <c r="C41" t="n">
-        <v>337.1124904189253</v>
+        <v>328.9871017045043</v>
       </c>
       <c r="D41" t="n">
-        <v>337.1124904189253</v>
+        <v>328.9871017045043</v>
       </c>
       <c r="E41" t="n">
-        <v>337.1124904189253</v>
+        <v>328.9871017045043</v>
       </c>
       <c r="F41" t="n">
-        <v>27.81178045956134</v>
+        <v>328.9871017045043</v>
       </c>
       <c r="G41" t="n">
-        <v>27.81178045956134</v>
+        <v>328.9871017045043</v>
       </c>
       <c r="H41" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="I41" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="J41" t="n">
         <v>97.37723928323615</v>
@@ -7435,28 +7435,28 @@
         <v>1390.589022978066</v>
       </c>
       <c r="R41" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S41" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T41" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="U41" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="V41" t="n">
-        <v>1390.589022978067</v>
+        <v>1048.482213681585</v>
       </c>
       <c r="W41" t="n">
-        <v>1390.589022978067</v>
+        <v>1031.304790077265</v>
       </c>
       <c r="X41" t="n">
-        <v>1039.430178791686</v>
+        <v>680.1459458908847</v>
       </c>
       <c r="Y41" t="n">
-        <v>688.2713346053058</v>
+        <v>680.1459458908847</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>308.5549782779888</v>
+        <v>401.1955730871227</v>
       </c>
       <c r="C42" t="n">
-        <v>157.900747838081</v>
+        <v>401.1955730871227</v>
       </c>
       <c r="D42" t="n">
-        <v>27.81178045956134</v>
+        <v>271.106605708603</v>
       </c>
       <c r="E42" t="n">
-        <v>27.81178045956134</v>
+        <v>271.106605708603</v>
       </c>
       <c r="F42" t="n">
-        <v>27.81178045956134</v>
+        <v>146.6747995917348</v>
       </c>
       <c r="G42" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="H42" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="I42" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="J42" t="n">
-        <v>57.01289064179399</v>
+        <v>251.7478856215214</v>
       </c>
       <c r="K42" t="n">
-        <v>157.7228750988294</v>
+        <v>352.4578700785568</v>
       </c>
       <c r="L42" t="n">
-        <v>323.2495293361815</v>
+        <v>517.9845243159089</v>
       </c>
       <c r="M42" t="n">
-        <v>528.9932917552518</v>
+        <v>723.7282867349792</v>
       </c>
       <c r="N42" t="n">
-        <v>873.1640749423234</v>
+        <v>944.2830935308459</v>
       </c>
       <c r="O42" t="n">
-        <v>1143.774713453421</v>
+        <v>1131.604785990899</v>
       </c>
       <c r="P42" t="n">
-        <v>1281.55039316661</v>
+        <v>1269.380465704087</v>
       </c>
       <c r="Q42" t="n">
-        <v>1341.202308725336</v>
+        <v>1341.202308725335</v>
       </c>
       <c r="R42" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S42" t="n">
-        <v>1332.663582776649</v>
+        <v>1277.888358601178</v>
       </c>
       <c r="T42" t="n">
-        <v>1160.503709982089</v>
+        <v>1105.728485806618</v>
       </c>
       <c r="U42" t="n">
-        <v>950.5193034236232</v>
+        <v>1105.728485806618</v>
       </c>
       <c r="V42" t="n">
-        <v>727.9793017946903</v>
+        <v>883.188484177685</v>
       </c>
       <c r="W42" t="n">
-        <v>497.8620559279771</v>
+        <v>653.0712383109719</v>
       </c>
       <c r="X42" t="n">
-        <v>308.5549782779888</v>
+        <v>463.7641606609836</v>
       </c>
       <c r="Y42" t="n">
-        <v>308.5549782779888</v>
+        <v>401.1955730871227</v>
       </c>
     </row>
     <row r="43">
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>609.656188065419</v>
+        <v>502.6399532252559</v>
       </c>
       <c r="C43" t="n">
-        <v>609.656188065419</v>
+        <v>332.4348352912451</v>
       </c>
       <c r="D43" t="n">
-        <v>454.0230749679337</v>
+        <v>332.4348352912451</v>
       </c>
       <c r="E43" t="n">
-        <v>298.4642628271362</v>
+        <v>332.4348352912451</v>
       </c>
       <c r="F43" t="n">
-        <v>195.0624784526584</v>
+        <v>175.1089005042181</v>
       </c>
       <c r="G43" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="H43" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="I43" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956133</v>
       </c>
       <c r="J43" t="n">
-        <v>67.56364899248432</v>
+        <v>67.5636489924843</v>
       </c>
       <c r="K43" t="n">
         <v>263.650626613421</v>
       </c>
       <c r="L43" t="n">
-        <v>573.9814096562982</v>
+        <v>341.9907029458138</v>
       </c>
       <c r="M43" t="n">
-        <v>695.9867289216846</v>
+        <v>682.4329965625664</v>
       </c>
       <c r="N43" t="n">
-        <v>764.306436871263</v>
+        <v>1016.107986406731</v>
       </c>
       <c r="O43" t="n">
         <v>1066.008786766879</v>
@@ -7590,31 +7590,31 @@
         <v>1304.821397249426</v>
       </c>
       <c r="Q43" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R43" t="n">
-        <v>1311.802563776866</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S43" t="n">
-        <v>1126.472237001195</v>
+        <v>1205.258696202397</v>
       </c>
       <c r="T43" t="n">
-        <v>895.0402513194749</v>
+        <v>1205.258696202397</v>
       </c>
       <c r="U43" t="n">
-        <v>609.656188065419</v>
+        <v>1205.258696202397</v>
       </c>
       <c r="V43" t="n">
-        <v>609.656188065419</v>
+        <v>1205.258696202397</v>
       </c>
       <c r="W43" t="n">
-        <v>609.656188065419</v>
+        <v>921.9282941335741</v>
       </c>
       <c r="X43" t="n">
-        <v>609.656188065419</v>
+        <v>687.8479719165572</v>
       </c>
       <c r="Y43" t="n">
-        <v>609.656188065419</v>
+        <v>687.8479719165572</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>730.1294688323223</v>
+        <v>697.3233694952039</v>
       </c>
       <c r="C44" t="n">
-        <v>378.9706246459419</v>
+        <v>697.3233694952039</v>
       </c>
       <c r="D44" t="n">
-        <v>378.9706246459419</v>
+        <v>346.1645253088236</v>
       </c>
       <c r="E44" t="n">
-        <v>27.81178045956134</v>
+        <v>346.1645253088236</v>
       </c>
       <c r="F44" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="G44" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H44" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I44" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J44" t="n">
-        <v>97.37723928323615</v>
+        <v>97.37723928323612</v>
       </c>
       <c r="K44" t="n">
         <v>234.6178659349239</v>
       </c>
       <c r="L44" t="n">
-        <v>428.8631441503474</v>
+        <v>428.8631441503473</v>
       </c>
       <c r="M44" t="n">
-        <v>665.5835775618963</v>
+        <v>665.5835775618962</v>
       </c>
       <c r="N44" t="n">
-        <v>909.1333705158791</v>
+        <v>909.1333705158788</v>
       </c>
       <c r="O44" t="n">
-        <v>1130.44261393245</v>
+        <v>1130.442613932449</v>
       </c>
       <c r="P44" t="n">
-        <v>1296.899282459867</v>
+        <v>1296.899282459866</v>
       </c>
       <c r="Q44" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T44" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="U44" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="V44" t="n">
-        <v>1390.589022978067</v>
+        <v>1048.482213681584</v>
       </c>
       <c r="W44" t="n">
-        <v>1390.589022978067</v>
+        <v>1048.482213681584</v>
       </c>
       <c r="X44" t="n">
-        <v>1081.288313018703</v>
+        <v>1048.482213681584</v>
       </c>
       <c r="Y44" t="n">
-        <v>730.1294688323223</v>
+        <v>1048.482213681584</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>727.9473689239549</v>
+        <v>276.7637669702545</v>
       </c>
       <c r="C45" t="n">
-        <v>622.5626049908682</v>
+        <v>276.7637669702545</v>
       </c>
       <c r="D45" t="n">
-        <v>492.4736376123485</v>
+        <v>146.6747995917348</v>
       </c>
       <c r="E45" t="n">
-        <v>356.0271467232362</v>
+        <v>146.6747995917348</v>
       </c>
       <c r="F45" t="n">
-        <v>231.595340606368</v>
+        <v>146.6747995917348</v>
       </c>
       <c r="G45" t="n">
-        <v>112.7323214741945</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H45" t="n">
-        <v>35.99346186737657</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I45" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J45" t="n">
-        <v>57.01289064179399</v>
+        <v>57.01289064179397</v>
       </c>
       <c r="K45" t="n">
         <v>157.7228750988294</v>
@@ -7748,31 +7748,31 @@
         <v>1074.64547072436</v>
       </c>
       <c r="Q45" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R45" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S45" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T45" t="n">
-        <v>1390.589022978067</v>
+        <v>1218.429150183506</v>
       </c>
       <c r="U45" t="n">
-        <v>1180.604616419601</v>
+        <v>1008.44474362504</v>
       </c>
       <c r="V45" t="n">
-        <v>958.064614790668</v>
+        <v>785.9047419961068</v>
       </c>
       <c r="W45" t="n">
-        <v>727.9473689239549</v>
+        <v>555.7874961293937</v>
       </c>
       <c r="X45" t="n">
-        <v>727.9473689239549</v>
+        <v>555.7874961293937</v>
       </c>
       <c r="Y45" t="n">
-        <v>727.9473689239549</v>
+        <v>376.473279204901</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>748.1886208863921</v>
+        <v>788.6186918293743</v>
       </c>
       <c r="C46" t="n">
-        <v>577.9835029523813</v>
+        <v>788.6186918293743</v>
       </c>
       <c r="D46" t="n">
-        <v>577.9835029523813</v>
+        <v>757.4258070604337</v>
       </c>
       <c r="E46" t="n">
-        <v>577.9835029523813</v>
+        <v>601.8669949196362</v>
       </c>
       <c r="F46" t="n">
-        <v>420.6575681653542</v>
+        <v>444.5410601326092</v>
       </c>
       <c r="G46" t="n">
-        <v>253.4068701722572</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="H46" t="n">
-        <v>106.8490652927817</v>
+        <v>130.7325572600367</v>
       </c>
       <c r="I46" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J46" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="K46" t="n">
-        <v>59.04368533781663</v>
+        <v>59.0436853378166</v>
       </c>
       <c r="L46" t="n">
         <v>369.3744683806939</v>
       </c>
       <c r="M46" t="n">
-        <v>709.8167619974464</v>
+        <v>516.3990727557375</v>
       </c>
       <c r="N46" t="n">
-        <v>1043.491751841611</v>
+        <v>850.0740625999026</v>
       </c>
       <c r="O46" t="n">
-        <v>1345.194101737228</v>
+        <v>1151.776412495519</v>
       </c>
       <c r="P46" t="n">
-        <v>1375.50257583757</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Q46" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R46" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S46" t="n">
-        <v>1390.589022978067</v>
+        <v>1205.258696202396</v>
       </c>
       <c r="T46" t="n">
-        <v>1390.589022978067</v>
+        <v>973.8267105206755</v>
       </c>
       <c r="U46" t="n">
-        <v>1390.589022978067</v>
+        <v>973.8267105206755</v>
       </c>
       <c r="V46" t="n">
-        <v>1390.589022978067</v>
+        <v>973.8267105206755</v>
       </c>
       <c r="W46" t="n">
-        <v>1390.589022978067</v>
+        <v>973.8267105206755</v>
       </c>
       <c r="X46" t="n">
-        <v>1156.50870076105</v>
+        <v>973.8267105206755</v>
       </c>
       <c r="Y46" t="n">
-        <v>933.3966395776933</v>
+        <v>973.8267105206755</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.027671010420704</v>
+        <v>1.027671010420733</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>62.17842597500336</v>
+        <v>62.17842597500362</v>
       </c>
       <c r="R12" t="n">
-        <v>21.12823495340668</v>
+        <v>21.12823495340669</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8859,16 +8859,16 @@
         <v>278.4750710187352</v>
       </c>
       <c r="N13" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>62.91015697006196</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>76.60079571664524</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.3010496868272</v>
+        <v>15.30104968682723</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>62.17842597500365</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>208.9948711537866</v>
       </c>
       <c r="R15" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,16 +9087,16 @@
         <v>12.31913390494034</v>
       </c>
       <c r="K16" t="n">
-        <v>72.66423500290756</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
-        <v>278.4750710187352</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>184.6190305239836</v>
       </c>
       <c r="O16" t="n">
         <v>254.3449995307766</v>
@@ -9242,19 +9242,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>12.29285602274915</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>84.13024853640928</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>124.8646226173785</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.31913390494034</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N19" t="n">
-        <v>97.98506514151964</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O19" t="n">
-        <v>254.3449995307766</v>
+        <v>229.4304324677195</v>
       </c>
       <c r="P19" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.9350150692923</v>
+        <v>15.3010496868272</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>12.29285602274915</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>258.8804411060416</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>166.520275497658</v>
       </c>
       <c r="L22" t="n">
-        <v>253.4605344048249</v>
+        <v>62.02569184410967</v>
       </c>
       <c r="M22" t="n">
-        <v>144.4656279654768</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O22" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P22" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>15.3010496868272</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>112.3328068104086</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>274.8562959112436</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>123.3983830532173</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>50.50252833451479</v>
       </c>
       <c r="K24" t="n">
         <v>369.336390616686</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>131.635512119148</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>21.12823495340668</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>123.3983830532172</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>274.8562959112436</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>213.8227508018406</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>102.5176150018526</v>
+        <v>1.027671010420704</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>133.8133765445116</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>281.8498168762645</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>331.8962943983494</v>
+        <v>173.2513338679092</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>123.3983830532171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>224.8883270446487</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5176150018526</v>
+        <v>1.027671010420704</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>369.336390616686</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>131.6355121191479</v>
+        <v>173.2513338679087</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10351,7 +10351,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>224.8883270446486</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.3983830532173</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>102.5176150018526</v>
+        <v>1.027671010420704</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>369.336390616686</v>
+        <v>173.251333867909</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>181.5210820714017</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>180.4486151007267</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>78.43182600531514</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>208.9948711537875</v>
       </c>
       <c r="R36" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,13 +10746,13 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N37" t="n">
         <v>268.0356382773604</v>
@@ -10761,10 +10761,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P37" t="n">
-        <v>87.04022845802088</v>
+        <v>141.9120019593031</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.3010496868272</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>180.4486151007267</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>78.43182600531514</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>12.29285602274955</v>
       </c>
       <c r="R39" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.31913390494034</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
-        <v>166.520275497658</v>
+        <v>141.9120019593029</v>
       </c>
       <c r="L40" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N40" t="n">
-        <v>97.98506514151987</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O40" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>101.9350150692923</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>124.8646226173786</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>84.13024853640911</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>12.29285602274955</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11223,16 +11223,16 @@
         <v>166.520275497658</v>
       </c>
       <c r="L43" t="n">
-        <v>253.4605344048249</v>
+        <v>19.12648722251744</v>
       </c>
       <c r="M43" t="n">
-        <v>57.83166258301188</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O43" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>210.6102387699041</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>258.8804411060418</v>
+        <v>258.8804411060409</v>
       </c>
       <c r="R45" t="n">
         <v>21.12823495340668</v>
@@ -11463,7 +11463,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>278.4750710187352</v>
+        <v>83.10366774428176</v>
       </c>
       <c r="N46" t="n">
         <v>268.0356382773604</v>
@@ -11472,10 +11472,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.539885182279</v>
+        <v>15.3010496868272</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>48.84254250976642</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23269,16 +23269,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>65.07823834080551</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8166861751919</v>
+        <v>214.9958107236366</v>
       </c>
       <c r="H11" t="n">
         <v>298.1635680324936</v>
       </c>
       <c r="I11" t="n">
-        <v>51.58147895005203</v>
+        <v>51.58147895005204</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.5718775168518</v>
@@ -23317,16 +23317,16 @@
         <v>253.0180469272126</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>19.64178893687881</v>
+        <v>19.64178893687892</v>
       </c>
       <c r="X11" t="n">
-        <v>37.91082327175712</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>77.35658458783502</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,7 +23345,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>75.97147101074981</v>
       </c>
       <c r="I12" t="n">
-        <v>8.099864593737074</v>
+        <v>8.099864593737081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>170.4382740666146</v>
       </c>
       <c r="U12" t="n">
-        <v>207.8845624928813</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>149.5489899183014</v>
+        <v>124.6510748636534</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>136.2937530003902</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>12.09419791985778</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23497,22 +23497,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>41.59649073758231</v>
       </c>
       <c r="D14" t="n">
-        <v>373.5425826682224</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>50.91043389010423</v>
+        <v>206.7368141830657</v>
       </c>
       <c r="F14" t="n">
-        <v>65.07823834080534</v>
+        <v>65.07823834080563</v>
       </c>
       <c r="G14" t="n">
-        <v>59.16943043067528</v>
+        <v>406.8166861751919</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I14" t="n">
         <v>51.58147895005203</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.5718775168518</v>
@@ -23560,7 +23560,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>37.91082327175735</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23582,16 +23582,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>40.80804603877681</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I15" t="n">
         <v>8.099864593737074</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8845624928813</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>120.1748889558458</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>101.7704363037866</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H16" t="n">
-        <v>17.83848215005962</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>282.5302226215153</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>48.84254250976642</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>373.5425826682224</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>50.91043389010423</v>
+        <v>50.9104338901044</v>
       </c>
       <c r="F17" t="n">
-        <v>65.07823834080534</v>
+        <v>65.07823834080551</v>
       </c>
       <c r="G17" t="n">
-        <v>59.16943043067528</v>
+        <v>406.8166861751919</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I17" t="n">
         <v>51.58147895005203</v>
@@ -23800,7 +23800,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>86.31809912883477</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>68.48896522290309</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>141.6651823476626</v>
       </c>
       <c r="D18" t="n">
         <v>128.7880777047345</v>
@@ -23828,7 +23828,7 @@
         <v>117.6743889408517</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I18" t="n">
         <v>8.099864593737074</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23901,16 +23901,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H19" t="n">
         <v>145.0922268306807</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>32.51742907318931</v>
+        <v>92.11919587005931</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>48.84254250976642</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>41.5964907375822</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>33.93946175098245</v>
       </c>
       <c r="E20" t="n">
-        <v>381.5520402663443</v>
+        <v>206.7368141830656</v>
       </c>
       <c r="F20" t="n">
-        <v>65.07823834080534</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>59.16943043067528</v>
+        <v>406.8166861751919</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I20" t="n">
         <v>51.58147895005203</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.5718775168518</v>
@@ -24028,7 +24028,7 @@
         <v>253.0180469272126</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>46.09705027308723</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
         <v>117.6743889408517</v>
       </c>
       <c r="H21" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>8.099864593737074</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>34.15752185389461</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>170.4382740666146</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>207.8845624928813</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>22.81683759241213</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>90.27251887770333</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24214,7 +24214,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>325.8117638549634</v>
+        <v>250.6177387633643</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>51.58147895005203</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.5718775168518</v>
       </c>
       <c r="U23" t="n">
         <v>253.0180469272126</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>8.099864593737074</v>
@@ -24335,10 +24335,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T24" t="n">
-        <v>38.15461008224329</v>
+        <v>94.2666122209163</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173.2733763471404</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -24432,7 +24432,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>9.73252526467752</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>406.8166861751919</v>
       </c>
       <c r="H26" t="n">
-        <v>298.1635680324936</v>
+        <v>164.4923479810972</v>
       </c>
       <c r="I26" t="n">
         <v>51.58147895005203</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>27.32373371408244</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>211.5718775168518</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0180469272126</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>38.15461008224321</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>27.04092131836049</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H27" t="n">
         <v>75.9714710107498</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>49.77186677459059</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>229.1176658249033</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.2674273981231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>144.598199519977</v>
       </c>
       <c r="H29" t="n">
         <v>298.1635680324936</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T29" t="n">
         <v>211.5718775168518</v>
@@ -24745,7 +24745,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>256.9171355478533</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24764,19 +24764,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>38.15461008224321</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>117.6743889408517</v>
+        <v>72.97602628981079</v>
       </c>
       <c r="H30" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>8.099864593737074</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>170.4382740666146</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I31" t="n">
         <v>101.8915690324706</v>
@@ -24888,19 +24888,19 @@
         <v>77.99859460918927</v>
       </c>
       <c r="S31" t="n">
-        <v>183.4770235079133</v>
+        <v>86.79022417633988</v>
       </c>
       <c r="T31" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5302226215153</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>31.37585836565259</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -24928,16 +24928,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>406.8166861751919</v>
       </c>
       <c r="H32" t="n">
-        <v>59.64843527954589</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>51.58147895005203</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T32" t="n">
         <v>211.5718775168518</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0180469272126</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>64.70899567752457</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -25001,13 +25001,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>122.7260872454276</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25016,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>111.5736577331194</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>65.8932256011778</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>145.0922268306807</v>
       </c>
       <c r="I34" t="n">
-        <v>101.8915690324706</v>
+        <v>50.96436434204725</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>197.1589442976428</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>48.84254250976619</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>83.03604362232841</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>92.34998677485055</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>65.0782383408054</v>
       </c>
       <c r="G35" t="n">
-        <v>59.16943043067521</v>
+        <v>59.16943043067533</v>
       </c>
       <c r="H35" t="n">
         <v>298.1635680324936</v>
@@ -25219,10 +25219,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>37.91082327175712</v>
       </c>
       <c r="Y35" t="n">
-        <v>44.87854624408817</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>18.62528521134692</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>135.0820259802211</v>
@@ -25250,7 +25250,7 @@
         <v>117.6743889408517</v>
       </c>
       <c r="H36" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>8.099864593737074</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>141.6651823476618</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>84.74086717033101</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H37" t="n">
         <v>145.0922268306807</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.1176658249033</v>
+        <v>193.2293754231547</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25393,19 +25393,19 @@
         <v>90.28209539451257</v>
       </c>
       <c r="C38" t="n">
-        <v>41.59649073758197</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>33.93946175098222</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>50.91043389010429</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>65.0782383408054</v>
       </c>
       <c r="G38" t="n">
-        <v>406.8166861751919</v>
+        <v>59.16943043067533</v>
       </c>
       <c r="H38" t="n">
         <v>298.1635680324936</v>
@@ -25459,7 +25459,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>44.87854624408817</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25472,25 +25472,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>111.5736577331194</v>
+        <v>104.091151945273</v>
       </c>
       <c r="T39" t="n">
-        <v>170.4382740666146</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>111.8995495463513</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>145.0922268306807</v>
       </c>
       <c r="I40" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>77.99859460918927</v>
       </c>
       <c r="S40" t="n">
-        <v>183.4770235079133</v>
+        <v>91.7041681198656</v>
       </c>
       <c r="T40" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>281.6768671291417</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>48.84254250976619</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>41.59649073758209</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -25639,13 +25639,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>106.5177912255517</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>406.8166861751919</v>
       </c>
       <c r="H41" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>51.58147895005203</v>
@@ -25687,16 +25687,16 @@
         <v>253.0180469272126</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>350.2833953131191</v>
       </c>
       <c r="X41" t="n">
-        <v>37.91082327175701</v>
+        <v>37.91082327175712</v>
       </c>
       <c r="Y41" t="n">
-        <v>44.87854624408817</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25718,10 +25718,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>75.9714710107498</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2274719337162</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.8845624928813</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>115.5781730571256</v>
       </c>
     </row>
     <row r="43">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>53.38490890842372</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>19.75404216895592</v>
       </c>
       <c r="H43" t="n">
         <v>145.0922268306807</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>48.84254250976642</v>
       </c>
       <c r="C44" t="n">
-        <v>41.59649073758197</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>33.93946175098245</v>
       </c>
       <c r="E44" t="n">
-        <v>50.91043389010417</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>97.55627668455236</v>
       </c>
       <c r="G44" t="n">
         <v>406.8166861751919</v>
@@ -25924,16 +25924,16 @@
         <v>253.0180469272126</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>79.35037615650339</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>44.87854624408817</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>51.56595398425172</v>
       </c>
       <c r="C45" t="n">
-        <v>44.8167718417529</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>111.5736577331194</v>
       </c>
       <c r="T45" t="n">
-        <v>170.4382740666146</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>123.1958260452593</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>23.64465704758245</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>77.99859460918927</v>
       </c>
       <c r="S46" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>282.5302226215153</v>
@@ -26088,10 +26088,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>414959.680649107</v>
+        <v>414959.6806491069</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>414959.680649107</v>
+        <v>414959.6806491069</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>414959.6806491071</v>
+        <v>414959.6806491068</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>518670.4196487755</v>
+        <v>518670.4196487754</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>518670.4196487755</v>
+        <v>518670.4196487753</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>518670.4196487754</v>
+        <v>518670.4196487753</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>414959.6806491071</v>
+        <v>414959.680649107</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>414959.6806491069</v>
+        <v>414959.680649107</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>414959.6806491071</v>
+        <v>414959.680649107</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>414959.6806491071</v>
+        <v>414959.6806491069</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>485727.897549736</v>
+        <v>485727.8975497361</v>
       </c>
       <c r="C2" t="n">
-        <v>485727.897549736</v>
+        <v>485727.8975497361</v>
       </c>
       <c r="D2" t="n">
         <v>485727.8975497361</v>
@@ -26325,37 +26325,37 @@
         <v>250771.7471685573</v>
       </c>
       <c r="F2" t="n">
+        <v>250771.7471685573</v>
+      </c>
+      <c r="G2" t="n">
+        <v>250771.7471685573</v>
+      </c>
+      <c r="H2" t="n">
+        <v>250771.7471685573</v>
+      </c>
+      <c r="I2" t="n">
+        <v>297972.6967530656</v>
+      </c>
+      <c r="J2" t="n">
+        <v>297972.6967530656</v>
+      </c>
+      <c r="K2" t="n">
+        <v>297972.6967530657</v>
+      </c>
+      <c r="L2" t="n">
+        <v>297972.6967530655</v>
+      </c>
+      <c r="M2" t="n">
+        <v>250771.7471685573</v>
+      </c>
+      <c r="N2" t="n">
         <v>250771.7471685574</v>
       </c>
-      <c r="G2" t="n">
-        <v>250771.7471685574</v>
-      </c>
-      <c r="H2" t="n">
-        <v>250771.7471685574</v>
-      </c>
-      <c r="I2" t="n">
-        <v>297972.6967530657</v>
-      </c>
-      <c r="J2" t="n">
-        <v>297972.6967530657</v>
-      </c>
-      <c r="K2" t="n">
-        <v>297972.6967530656</v>
-      </c>
-      <c r="L2" t="n">
-        <v>297972.6967530657</v>
-      </c>
-      <c r="M2" t="n">
-        <v>250771.7471685574</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>250771.7471685573</v>
       </c>
-      <c r="O2" t="n">
-        <v>250771.7471685574</v>
-      </c>
       <c r="P2" t="n">
-        <v>250771.7471685574</v>
+        <v>250771.7471685573</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>546348.2535450244</v>
+        <v>546348.2535450242</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>32819.01035030105</v>
+        <v>32819.01035030109</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>55879.22819363904</v>
+        <v>55879.22819363908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>15883.91652151715</v>
       </c>
       <c r="F4" t="n">
-        <v>15883.91652151715</v>
+        <v>15883.91652151712</v>
       </c>
       <c r="G4" t="n">
-        <v>15883.91652151715</v>
+        <v>15883.91652151714</v>
       </c>
       <c r="H4" t="n">
-        <v>15883.91652151716</v>
+        <v>15883.91652151713</v>
       </c>
       <c r="I4" t="n">
-        <v>44529.79356079144</v>
+        <v>44529.79356079143</v>
       </c>
       <c r="J4" t="n">
         <v>44529.79356079143</v>
       </c>
       <c r="K4" t="n">
-        <v>44529.79356079143</v>
+        <v>44529.7935607914</v>
       </c>
       <c r="L4" t="n">
-        <v>44529.79356079143</v>
+        <v>44529.79356079141</v>
       </c>
       <c r="M4" t="n">
-        <v>15883.91652151716</v>
+        <v>15883.91652151715</v>
       </c>
       <c r="N4" t="n">
-        <v>15883.91652151716</v>
+        <v>15883.91652151715</v>
       </c>
       <c r="O4" t="n">
         <v>15883.91652151715</v>
       </c>
       <c r="P4" t="n">
-        <v>15883.91652151716</v>
+        <v>15883.91652151714</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>33145.3173208985</v>
+        <v>33145.31732089848</v>
       </c>
       <c r="F5" t="n">
-        <v>33145.3173208985</v>
+        <v>33145.31732089848</v>
       </c>
       <c r="G5" t="n">
-        <v>33145.3173208985</v>
+        <v>33145.31732089849</v>
       </c>
       <c r="H5" t="n">
-        <v>33145.3173208985</v>
+        <v>33145.31732089849</v>
       </c>
       <c r="I5" t="n">
         <v>40649.03394838675</v>
@@ -26496,10 +26496,10 @@
         <v>40649.03394838675</v>
       </c>
       <c r="K5" t="n">
-        <v>40649.03394838675</v>
+        <v>40649.03394838674</v>
       </c>
       <c r="L5" t="n">
-        <v>40649.03394838675</v>
+        <v>40649.03394838674</v>
       </c>
       <c r="M5" t="n">
         <v>33145.3173208985</v>
@@ -26511,7 +26511,7 @@
         <v>33145.3173208985</v>
       </c>
       <c r="P5" t="n">
-        <v>33145.3173208985</v>
+        <v>33145.31732089849</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67042.89605981676</v>
+        <v>67038.56649203051</v>
       </c>
       <c r="C6" t="n">
-        <v>67042.89605981682</v>
+        <v>67038.56649203051</v>
       </c>
       <c r="D6" t="n">
-        <v>67042.89605981688</v>
+        <v>67038.56649203051</v>
       </c>
       <c r="E6" t="n">
-        <v>-344605.7402188827</v>
+        <v>-345480.2777510437</v>
       </c>
       <c r="F6" t="n">
-        <v>201742.5133261418</v>
+        <v>200867.9757939806</v>
       </c>
       <c r="G6" t="n">
-        <v>201742.5133261418</v>
+        <v>200867.9757939805</v>
       </c>
       <c r="H6" t="n">
-        <v>201742.5133261417</v>
+        <v>200867.9757939805</v>
       </c>
       <c r="I6" t="n">
-        <v>179974.8588935865</v>
+        <v>179275.1396932196</v>
       </c>
       <c r="J6" t="n">
-        <v>212793.8692438875</v>
+        <v>212094.1500435208</v>
       </c>
       <c r="K6" t="n">
-        <v>212793.8692438875</v>
+        <v>212094.1500435209</v>
       </c>
       <c r="L6" t="n">
-        <v>212793.8692438875</v>
+        <v>212094.1500435206</v>
       </c>
       <c r="M6" t="n">
-        <v>145863.2851325027</v>
+        <v>144988.7476003414</v>
       </c>
       <c r="N6" t="n">
-        <v>201742.5133261417</v>
+        <v>200867.9757939806</v>
       </c>
       <c r="O6" t="n">
-        <v>201742.5133261418</v>
+        <v>200867.9757939805</v>
       </c>
       <c r="P6" t="n">
-        <v>201742.5133261417</v>
+        <v>200867.9757939805</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>550.8423931941231</v>
+        <v>550.842393194123</v>
       </c>
       <c r="F3" t="n">
         <v>550.8423931941231</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>347.6472557445166</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="F4" t="n">
-        <v>347.6472557445167</v>
+        <v>347.6472557445164</v>
       </c>
       <c r="G4" t="n">
-        <v>347.6472557445167</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="H4" t="n">
-        <v>347.6472557445167</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="I4" t="n">
         <v>471.0636476439945</v>
@@ -26816,22 +26816,22 @@
         <v>471.0636476439945</v>
       </c>
       <c r="K4" t="n">
-        <v>471.0636476439945</v>
+        <v>471.0636476439944</v>
       </c>
       <c r="L4" t="n">
-        <v>471.0636476439945</v>
+        <v>471.0636476439944</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6472557445167</v>
+        <v>347.6472557445166</v>
       </c>
       <c r="N4" t="n">
-        <v>347.6472557445167</v>
+        <v>347.6472557445166</v>
       </c>
       <c r="O4" t="n">
-        <v>347.6472557445167</v>
+        <v>347.6472557445166</v>
       </c>
       <c r="P4" t="n">
-        <v>347.6472557445167</v>
+        <v>347.6472557445165</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>550.8423931941231</v>
+        <v>550.842393194123</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>347.6472557445167</v>
+        <v>347.6472557445164</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4163918994778</v>
+        <v>123.416391899478</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>224.2308638450388</v>
+        <v>224.2308638450389</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6472557445167</v>
+        <v>347.6472557445164</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,40 +31758,40 @@
         <v>22.67865189668064</v>
       </c>
       <c r="I11" t="n">
-        <v>85.37226678840779</v>
+        <v>85.37226678840777</v>
       </c>
       <c r="J11" t="n">
-        <v>187.9479781682803</v>
+        <v>187.9479781682802</v>
       </c>
       <c r="K11" t="n">
         <v>281.6852987870028</v>
       </c>
       <c r="L11" t="n">
-        <v>349.4555214632426</v>
+        <v>349.4555214632425</v>
       </c>
       <c r="M11" t="n">
-        <v>388.8366004982817</v>
+        <v>388.8366004982816</v>
       </c>
       <c r="N11" t="n">
-        <v>395.128383210494</v>
+        <v>395.1283832104939</v>
       </c>
       <c r="O11" t="n">
-        <v>373.1085277438646</v>
+        <v>373.1085277438645</v>
       </c>
       <c r="P11" t="n">
-        <v>318.4394962585182</v>
+        <v>318.4394962585181</v>
       </c>
       <c r="Q11" t="n">
-        <v>239.1347999519271</v>
+        <v>239.134799951927</v>
       </c>
       <c r="R11" t="n">
         <v>139.1029285687652</v>
       </c>
       <c r="S11" t="n">
-        <v>50.46159210014506</v>
+        <v>50.46159210014505</v>
       </c>
       <c r="T11" t="n">
-        <v>9.693718899325722</v>
+        <v>9.69371889932572</v>
       </c>
       <c r="U11" t="n">
         <v>0.1771553425347932</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.184830808002454</v>
+        <v>1.184830808002453</v>
       </c>
       <c r="H12" t="n">
-        <v>11.44297122465528</v>
+        <v>11.44297122465527</v>
       </c>
       <c r="I12" t="n">
-        <v>40.79351685447045</v>
+        <v>40.79351685447044</v>
       </c>
       <c r="J12" t="n">
         <v>111.9405282244774</v>
@@ -31846,10 +31846,10 @@
         <v>191.3241923606418</v>
       </c>
       <c r="L12" t="n">
-        <v>257.2589875007082</v>
+        <v>257.2589875007081</v>
       </c>
       <c r="M12" t="n">
-        <v>300.2091042907971</v>
+        <v>300.209104290797</v>
       </c>
       <c r="N12" t="n">
         <v>308.1547459813048</v>
@@ -31858,22 +31858,22 @@
         <v>281.9013896566188</v>
       </c>
       <c r="P12" t="n">
-        <v>226.2507180649598</v>
+        <v>226.2507180649597</v>
       </c>
       <c r="Q12" t="n">
         <v>151.242613316243</v>
       </c>
       <c r="R12" t="n">
-        <v>73.56344262316991</v>
+        <v>73.56344262316989</v>
       </c>
       <c r="S12" t="n">
         <v>22.00771259601047</v>
       </c>
       <c r="T12" t="n">
-        <v>4.775699616466028</v>
+        <v>4.775699616466027</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07794939526331934</v>
+        <v>0.07794939526331933</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9933223483828448</v>
+        <v>0.9933223483828447</v>
       </c>
       <c r="H13" t="n">
-        <v>8.831538697440209</v>
+        <v>8.831538697440207</v>
       </c>
       <c r="I13" t="n">
-        <v>29.87191207682229</v>
+        <v>29.87191207682228</v>
       </c>
       <c r="J13" t="n">
-        <v>70.22789003066713</v>
+        <v>70.22789003066711</v>
       </c>
       <c r="K13" t="n">
         <v>115.4059964757523</v>
@@ -31928,7 +31928,7 @@
         <v>147.6799425950277</v>
       </c>
       <c r="M13" t="n">
-        <v>155.7077932105945</v>
+        <v>155.7077932105944</v>
       </c>
       <c r="N13" t="n">
         <v>152.0054099120767</v>
@@ -31940,19 +31940,19 @@
         <v>120.1378229353215</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.1772013723126</v>
+        <v>83.17720137231257</v>
       </c>
       <c r="R13" t="n">
-        <v>44.66338486455954</v>
+        <v>44.66338486455953</v>
       </c>
       <c r="S13" t="n">
         <v>17.31089947136284</v>
       </c>
       <c r="T13" t="n">
-        <v>4.244195488544881</v>
+        <v>4.24419548854488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05418121900270069</v>
+        <v>0.05418121900270068</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34152,7 +34152,7 @@
         <v>318.4394962585182</v>
       </c>
       <c r="Q41" t="n">
-        <v>239.1347999519271</v>
+        <v>239.1347999519272</v>
       </c>
       <c r="R41" t="n">
         <v>139.1029285687652</v>
@@ -34389,7 +34389,7 @@
         <v>318.4394962585182</v>
       </c>
       <c r="Q44" t="n">
-        <v>239.1347999519276</v>
+        <v>239.1347999519271</v>
       </c>
       <c r="R44" t="n">
         <v>139.1029285687652</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>70.26814022593416</v>
+        <v>70.26814022593413</v>
       </c>
       <c r="K11" t="n">
         <v>138.6268956077654</v>
       </c>
       <c r="L11" t="n">
-        <v>196.2073517327509</v>
+        <v>196.2073517327508</v>
       </c>
       <c r="M11" t="n">
-        <v>239.1115489005545</v>
+        <v>239.1115489005543</v>
       </c>
       <c r="N11" t="n">
-        <v>246.0098918727099</v>
+        <v>246.0098918727098</v>
       </c>
       <c r="O11" t="n">
-        <v>223.5446903197682</v>
+        <v>223.5446903197681</v>
       </c>
       <c r="P11" t="n">
-        <v>168.138049017593</v>
+        <v>168.1380490175929</v>
       </c>
       <c r="Q11" t="n">
-        <v>94.63610153353491</v>
+        <v>94.63610153353486</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>226.1980860221819</v>
+        <v>226.1980860221818</v>
       </c>
       <c r="K12" t="n">
-        <v>101.7272570273085</v>
+        <v>101.7272570273084</v>
       </c>
       <c r="L12" t="n">
-        <v>167.19864064379</v>
+        <v>167.1986406437899</v>
       </c>
       <c r="M12" t="n">
-        <v>207.8219822414852</v>
+        <v>207.8219822414851</v>
       </c>
       <c r="N12" t="n">
-        <v>222.7826331271382</v>
+        <v>222.7826331271381</v>
       </c>
       <c r="O12" t="n">
-        <v>189.21383076773</v>
+        <v>189.2138307677299</v>
       </c>
       <c r="P12" t="n">
         <v>139.1673532456451</v>
       </c>
       <c r="Q12" t="n">
-        <v>122.4328861353324</v>
+        <v>122.4328861353326</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>40.15340255850806</v>
+        <v>40.15340255850804</v>
       </c>
       <c r="K13" t="n">
         <v>198.0676541625623</v>
@@ -35579,13 +35579,13 @@
         <v>343.8811046633864</v>
       </c>
       <c r="N13" t="n">
-        <v>337.0454442870355</v>
+        <v>69.00980600967512</v>
       </c>
       <c r="O13" t="n">
-        <v>113.3150058186958</v>
+        <v>304.7498483794104</v>
       </c>
       <c r="P13" t="n">
-        <v>30.61462030337555</v>
+        <v>107.2154160200208</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>226.1980860221819</v>
+        <v>29.49607089114409</v>
       </c>
       <c r="K15" t="n">
-        <v>163.9056830023121</v>
+        <v>101.7272570273085</v>
       </c>
       <c r="L15" t="n">
         <v>167.19864064379</v>
@@ -35746,10 +35746,10 @@
         <v>139.1673532456451</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.25446016032903</v>
+        <v>269.2493313141156</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,16 +35807,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>104.2116136678119</v>
+        <v>198.0676541625623</v>
       </c>
       <c r="L16" t="n">
         <v>313.4654374170477</v>
       </c>
       <c r="M16" t="n">
-        <v>343.8811046633864</v>
+        <v>65.4060336446512</v>
       </c>
       <c r="N16" t="n">
-        <v>69.00980600967515</v>
+        <v>253.6288365336588</v>
       </c>
       <c r="O16" t="n">
         <v>304.7498483794105</v>
@@ -35892,7 +35892,7 @@
         <v>196.2073517327509</v>
       </c>
       <c r="M17" t="n">
-        <v>239.1115489005547</v>
+        <v>239.1115489005545</v>
       </c>
       <c r="N17" t="n">
         <v>246.0098918727099</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.49607089114409</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K18" t="n">
-        <v>101.7272570273085</v>
+        <v>114.0201130500576</v>
       </c>
       <c r="L18" t="n">
         <v>167.19864064379</v>
       </c>
       <c r="M18" t="n">
-        <v>291.9522307778944</v>
+        <v>207.8219822414852</v>
       </c>
       <c r="N18" t="n">
-        <v>347.6472557445167</v>
+        <v>222.7826331271382</v>
       </c>
       <c r="O18" t="n">
         <v>189.21383076773</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.15340255850806</v>
       </c>
       <c r="K19" t="n">
-        <v>198.0676541625623</v>
+        <v>31.54737866490433</v>
       </c>
       <c r="L19" t="n">
         <v>313.4654374170477</v>
       </c>
       <c r="M19" t="n">
-        <v>65.4060336446512</v>
+        <v>343.8811046633864</v>
       </c>
       <c r="N19" t="n">
-        <v>166.9948711511948</v>
+        <v>337.0454442870355</v>
       </c>
       <c r="O19" t="n">
-        <v>304.7498483794105</v>
+        <v>279.8352813163533</v>
       </c>
       <c r="P19" t="n">
-        <v>241.2248590732796</v>
+        <v>30.61462030337555</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.63396538246508</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.49607089114409</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K21" t="n">
-        <v>101.7272570273085</v>
+        <v>114.0201130500576</v>
       </c>
       <c r="L21" t="n">
         <v>167.19864064379</v>
@@ -36220,10 +36220,10 @@
         <v>139.1673532456451</v>
       </c>
       <c r="Q21" t="n">
-        <v>319.1349012663706</v>
+        <v>60.25446016032903</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,19 +36284,19 @@
         <v>198.0676541625623</v>
       </c>
       <c r="L22" t="n">
-        <v>313.4654374170477</v>
+        <v>122.0305948563325</v>
       </c>
       <c r="M22" t="n">
-        <v>209.871661610128</v>
+        <v>343.8811046633864</v>
       </c>
       <c r="N22" t="n">
-        <v>69.00980600967515</v>
+        <v>337.0454442870355</v>
       </c>
       <c r="O22" t="n">
         <v>304.7498483794105</v>
       </c>
       <c r="P22" t="n">
-        <v>241.2248590732796</v>
+        <v>30.61462030337555</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>334.0588598943692</v>
+        <v>182.6009470363428</v>
       </c>
       <c r="K23" t="n">
         <v>138.6268956077654</v>
       </c>
       <c r="L23" t="n">
-        <v>196.2073517327509</v>
+        <v>471.0636476439945</v>
       </c>
       <c r="M23" t="n">
         <v>239.1115489005545</v>
@@ -36378,7 +36378,7 @@
         <v>168.138049017593</v>
       </c>
       <c r="Q23" t="n">
-        <v>218.0344845867522</v>
+        <v>94.63610153353491</v>
       </c>
       <c r="R23" t="n">
         <v>101.4899439914319</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>226.1980860221819</v>
+        <v>79.99859922565888</v>
       </c>
       <c r="K24" t="n">
         <v>471.0636476439945</v>
@@ -36448,7 +36448,7 @@
         <v>207.8219822414852</v>
       </c>
       <c r="N24" t="n">
-        <v>354.4181452462862</v>
+        <v>222.7826331271382</v>
       </c>
       <c r="O24" t="n">
         <v>189.21383076773</v>
@@ -36457,10 +36457,10 @@
         <v>139.1673532456451</v>
       </c>
       <c r="Q24" t="n">
-        <v>60.25446016032903</v>
+        <v>387.9750290282536</v>
       </c>
       <c r="R24" t="n">
-        <v>49.8855699522538</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>334.0588598943692</v>
+        <v>70.26814022593416</v>
       </c>
       <c r="K26" t="n">
-        <v>262.0252786609826</v>
+        <v>138.6268956077654</v>
       </c>
       <c r="L26" t="n">
-        <v>196.2073517327509</v>
+        <v>471.0636476439945</v>
       </c>
       <c r="M26" t="n">
         <v>239.1115489005545</v>
@@ -36609,7 +36609,7 @@
         <v>246.0098918727099</v>
       </c>
       <c r="O26" t="n">
-        <v>223.5446903197682</v>
+        <v>437.3674411216088</v>
       </c>
       <c r="P26" t="n">
         <v>168.138049017593</v>
@@ -36618,7 +36618,7 @@
         <v>94.63610153353491</v>
       </c>
       <c r="R26" t="n">
-        <v>101.4899439914319</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.49607089114409</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K27" t="n">
         <v>101.7272570273085</v>
@@ -36682,22 +36682,22 @@
         <v>167.19864064379</v>
       </c>
       <c r="M27" t="n">
-        <v>341.6353587859967</v>
+        <v>207.8219822414852</v>
       </c>
       <c r="N27" t="n">
         <v>222.7826331271382</v>
       </c>
       <c r="O27" t="n">
-        <v>471.0636476439945</v>
+        <v>189.21383076773</v>
       </c>
       <c r="P27" t="n">
-        <v>471.0636476439945</v>
+        <v>312.4186871135543</v>
       </c>
       <c r="Q27" t="n">
-        <v>60.25446016032903</v>
+        <v>387.9750290282536</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>138.6268956077654</v>
       </c>
       <c r="L29" t="n">
-        <v>319.605734785968</v>
+        <v>196.2073517327509</v>
       </c>
       <c r="M29" t="n">
         <v>239.1115489005545</v>
@@ -36852,10 +36852,10 @@
         <v>168.138049017593</v>
       </c>
       <c r="Q29" t="n">
-        <v>94.63610153353491</v>
+        <v>319.5244285781836</v>
       </c>
       <c r="R29" t="n">
-        <v>101.4899439914319</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>226.1980860221819</v>
       </c>
       <c r="K30" t="n">
-        <v>471.0636476439945</v>
+        <v>101.7272570273085</v>
       </c>
       <c r="L30" t="n">
         <v>167.19864064379</v>
@@ -36928,10 +36928,10 @@
         <v>189.21383076773</v>
       </c>
       <c r="P30" t="n">
-        <v>270.802865364793</v>
+        <v>312.4186871135538</v>
       </c>
       <c r="Q30" t="n">
-        <v>60.25446016032903</v>
+        <v>387.9750290282536</v>
       </c>
       <c r="R30" t="n">
         <v>49.8855699522538</v>
@@ -37071,7 +37071,7 @@
         <v>334.0588598943692</v>
       </c>
       <c r="K32" t="n">
-        <v>138.6268956077654</v>
+        <v>363.5152226524141</v>
       </c>
       <c r="L32" t="n">
         <v>196.2073517327509</v>
@@ -37089,10 +37089,10 @@
         <v>168.138049017593</v>
       </c>
       <c r="Q32" t="n">
-        <v>218.0344845867522</v>
+        <v>94.63610153353491</v>
       </c>
       <c r="R32" t="n">
-        <v>101.4899439914319</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>226.1980860221819</v>
       </c>
       <c r="K33" t="n">
-        <v>471.0636476439945</v>
+        <v>274.9785908952175</v>
       </c>
       <c r="L33" t="n">
         <v>167.19864064379</v>
@@ -37165,13 +37165,13 @@
         <v>189.21383076773</v>
       </c>
       <c r="P33" t="n">
-        <v>320.6884353170468</v>
+        <v>139.1673532456451</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.25446016032903</v>
+        <v>387.9750290282536</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>101.7272570273085</v>
       </c>
       <c r="L36" t="n">
-        <v>347.6472557445167</v>
+        <v>167.19864064379</v>
       </c>
       <c r="M36" t="n">
         <v>207.8219822414852</v>
@@ -37399,16 +37399,16 @@
         <v>222.7826331271382</v>
       </c>
       <c r="O36" t="n">
-        <v>267.6456567730451</v>
+        <v>189.21383076773</v>
       </c>
       <c r="P36" t="n">
         <v>139.1673532456451</v>
       </c>
       <c r="Q36" t="n">
-        <v>60.25446016032903</v>
+        <v>269.2493313141165</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>40.15340255850806</v>
       </c>
       <c r="K37" t="n">
-        <v>198.0676541625623</v>
+        <v>31.54737866490433</v>
       </c>
       <c r="L37" t="n">
-        <v>313.4654374170477</v>
+        <v>60.00490301222283</v>
       </c>
       <c r="M37" t="n">
-        <v>65.4060336446512</v>
+        <v>343.8811046633864</v>
       </c>
       <c r="N37" t="n">
         <v>337.0454442870355</v>
@@ -37481,10 +37481,10 @@
         <v>304.7498483794105</v>
       </c>
       <c r="P37" t="n">
-        <v>117.6548487613964</v>
+        <v>172.5266222626786</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.63396538246508</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.49607089114409</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K39" t="n">
         <v>101.7272570273085</v>
       </c>
       <c r="L39" t="n">
-        <v>347.6472557445167</v>
+        <v>167.19864064379</v>
       </c>
       <c r="M39" t="n">
-        <v>286.2538082468003</v>
+        <v>207.8219822414852</v>
       </c>
       <c r="N39" t="n">
         <v>222.7826331271382</v>
@@ -37642,10 +37642,10 @@
         <v>139.1673532456451</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.25446016032903</v>
+        <v>72.54731618307858</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>40.15340255850806</v>
       </c>
       <c r="K40" t="n">
-        <v>198.0676541625623</v>
+        <v>173.4593806242073</v>
       </c>
       <c r="L40" t="n">
-        <v>313.4654374170477</v>
+        <v>60.00490301222283</v>
       </c>
       <c r="M40" t="n">
-        <v>65.4060336446512</v>
+        <v>343.8811046633864</v>
       </c>
       <c r="N40" t="n">
-        <v>166.994871151195</v>
+        <v>337.0454442870355</v>
       </c>
       <c r="O40" t="n">
         <v>304.7498483794105</v>
       </c>
       <c r="P40" t="n">
-        <v>241.2248590732796</v>
+        <v>30.61462030337555</v>
       </c>
       <c r="Q40" t="n">
         <v>86.63396538246508</v>
@@ -37800,7 +37800,7 @@
         <v>168.138049017593</v>
       </c>
       <c r="Q41" t="n">
-        <v>94.63610153353491</v>
+        <v>94.636101533535</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.49607089114409</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K42" t="n">
         <v>101.7272570273085</v>
@@ -37870,16 +37870,16 @@
         <v>207.8219822414852</v>
       </c>
       <c r="N42" t="n">
-        <v>347.6472557445167</v>
+        <v>222.7826331271382</v>
       </c>
       <c r="O42" t="n">
-        <v>273.3440793041391</v>
+        <v>189.21383076773</v>
       </c>
       <c r="P42" t="n">
         <v>139.1673532456451</v>
       </c>
       <c r="Q42" t="n">
-        <v>60.25446016032903</v>
+        <v>72.54731618307858</v>
       </c>
       <c r="R42" t="n">
         <v>49.8855699522538</v>
@@ -37943,16 +37943,16 @@
         <v>198.0676541625623</v>
       </c>
       <c r="L43" t="n">
-        <v>313.4654374170477</v>
+        <v>79.13139023474027</v>
       </c>
       <c r="M43" t="n">
-        <v>123.2376962276631</v>
+        <v>343.8811046633864</v>
       </c>
       <c r="N43" t="n">
-        <v>69.00980600967515</v>
+        <v>337.0454442870355</v>
       </c>
       <c r="O43" t="n">
-        <v>304.7498483794105</v>
+        <v>50.40484884863382</v>
       </c>
       <c r="P43" t="n">
         <v>241.2248590732796</v>
@@ -38037,7 +38037,7 @@
         <v>168.138049017593</v>
       </c>
       <c r="Q44" t="n">
-        <v>94.63610153353545</v>
+        <v>94.63610153353491</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>139.1673532456451</v>
       </c>
       <c r="Q45" t="n">
-        <v>319.1349012663708</v>
+        <v>319.1349012663699</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38183,7 +38183,7 @@
         <v>313.4654374170477</v>
       </c>
       <c r="M46" t="n">
-        <v>343.8811046633864</v>
+        <v>148.509701388933</v>
       </c>
       <c r="N46" t="n">
         <v>337.0454442870355</v>
@@ -38192,10 +38192,10 @@
         <v>304.7498483794105</v>
       </c>
       <c r="P46" t="n">
-        <v>30.61462030337555</v>
+        <v>241.2248590732796</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.2388354954518</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
